--- a/data/WVS7graphs.xlsx
+++ b/data/WVS7graphs.xlsx
@@ -8,196 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julieta/Desktop/wellbeing_gdp_region/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67584BC-7171-324E-B009-855C7DA9A34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AC537-DCBA-6646-8951-990FFBD45394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26960" windowHeight="15660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="980" windowWidth="26960" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness_mean" sheetId="11" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
     <sheet name="satisfaction_mean" sheetId="7" r:id="rId3"/>
-    <sheet name="satisfied" sheetId="6" r:id="rId4"/>
-    <sheet name="ratio" sheetId="5" r:id="rId5"/>
-    <sheet name="very_unhappy" sheetId="4" r:id="rId6"/>
-    <sheet name="happy" sheetId="3" r:id="rId7"/>
-    <sheet name="very_happy" sheetId="2" r:id="rId8"/>
+    <sheet name="econometric results" sheetId="12" r:id="rId4"/>
+    <sheet name="satisfied" sheetId="6" r:id="rId5"/>
+    <sheet name="ratio" sheetId="5" r:id="rId6"/>
+    <sheet name="very_unhappy" sheetId="4" r:id="rId7"/>
+    <sheet name="happy" sheetId="3" r:id="rId8"/>
+    <sheet name="very_happy" sheetId="2" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.152" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.153" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.154" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.155" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.156" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.157" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.158" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.159" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.160" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.161" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.162" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.163" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.164" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.165" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.166" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.167" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">data!$B$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">data!$B$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">data!$I$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">data!$I$2:$I$63</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">data!$J$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">data!$J$2:$J$63</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">data!$K$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">data!$K$2:$K$63</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">data!$B$2:$B$63</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">data!$C$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">data!$C$2:$C$63</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">data!$D$1</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">data!$D$2:$D$63</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">data!$E$1</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">data!$E$2:$E$63</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">data!$F$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">data!$F$2:$F$63</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">data!$G$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">data!$G$2:$G$63</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">data!$H$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">data!$H$2:$H$63</definedName>
-    <definedName name="_xlchart.v5.61" hidden="1">data!$A$1</definedName>
-    <definedName name="_xlchart.v5.62" hidden="1">data!$A$2:$A$63</definedName>
-    <definedName name="_xlchart.v5.63" hidden="1">data!$B$1</definedName>
-    <definedName name="_xlchart.v5.64" hidden="1">data!$B$2:$B$63</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>country_code</t>
   </si>
@@ -420,6 +264,21 @@
   <si>
     <t>ZWE</t>
   </si>
+  <si>
+    <t>satisfied_mean</t>
+  </si>
+  <si>
+    <t>p-value for Y</t>
+  </si>
+  <si>
+    <t>r2ZG − maxYˆ {r2Yˆ }</t>
+  </si>
+  <si>
+    <t>r2 ZG - r2 Y</t>
+  </si>
+  <si>
+    <t>r2 ZG</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFFE1104-E50D-9B4C-8586-5F354C48A44F}" type="CELLRANGE">
+                    <a:fld id="{9B325541-20C3-3E4C-93C3-130EFB175FA9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -657,7 +516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCEAE319-96C4-5C4F-811E-2F4D6DA7F437}" type="CELLRANGE">
+                    <a:fld id="{65B31F05-4887-BB49-BD96-D263483372EA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -690,7 +549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56043BC6-712B-0F4B-9D2B-AA8658CFA46F}" type="CELLRANGE">
+                    <a:fld id="{737B7752-7D93-C643-9D55-B4C3283BDA2E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -723,7 +582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E1D33C0-9B37-074F-A3F0-68D64ADDBD26}" type="CELLRANGE">
+                    <a:fld id="{CE6F7204-FDBD-8646-B4D8-C8A9CD755DF1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -756,7 +615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A98E60C0-8346-2F41-AE4C-FF1A05F64763}" type="CELLRANGE">
+                    <a:fld id="{E6C3E0FF-AA1E-2B4C-A5EF-D603D6A636B7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -789,7 +648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7A3E148-C56D-A84F-8B4E-3D361113D4CF}" type="CELLRANGE">
+                    <a:fld id="{12AF5736-BE69-0C43-B332-C84065C75557}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -822,7 +681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B80F133-6C0D-E64F-9C03-1F8B16B48892}" type="CELLRANGE">
+                    <a:fld id="{5E11B899-E56D-314C-AE3F-A4AE624CF302}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -855,7 +714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A1DAF07-675D-E34E-B5F6-7C80875E6E75}" type="CELLRANGE">
+                    <a:fld id="{3DE46D19-3B13-B447-8A60-9D58666CD1D0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -888,7 +747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CFCFEA3-A09C-D048-AB5B-93C8961B415D}" type="CELLRANGE">
+                    <a:fld id="{964D20BE-857F-374F-B238-714DAC75FD76}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -921,7 +780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{016601BE-E660-4743-9DB1-3A8257EB9AE8}" type="CELLRANGE">
+                    <a:fld id="{3D6AC566-F4DD-6F45-B798-83F1EAB3A272}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -954,7 +813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C96D6D3-814A-5640-A4CF-C32FE4ECB109}" type="CELLRANGE">
+                    <a:fld id="{A198D5EF-8FC2-9444-9EE6-192BDF788F61}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -987,7 +846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBBC5F1A-63A1-2C4A-81C9-39C4C9532F08}" type="CELLRANGE">
+                    <a:fld id="{65265FD1-6C72-1649-A6C4-6F76753B4B0B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1020,7 +879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD4E7B35-0067-0E4D-B909-4E83354E70D9}" type="CELLRANGE">
+                    <a:fld id="{98202207-A57E-8242-9621-032E122F003B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1053,7 +912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4302860-7299-9341-BED3-5E6AE275DB39}" type="CELLRANGE">
+                    <a:fld id="{36BC4699-72EE-1248-AC98-84D6216AF46C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1086,7 +945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C83F7E3-5143-0146-8EF7-0ABEB33FB2C8}" type="CELLRANGE">
+                    <a:fld id="{962CDDAF-93D4-EE4D-A4C5-B0077F60A91D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1119,7 +978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F74BD02-B13D-C84A-82B7-522A426D4367}" type="CELLRANGE">
+                    <a:fld id="{BC55F691-D3B6-6A45-8D59-0CFDD6E3DD1A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1152,7 +1011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C9C73C6-B94C-0849-9219-86E3AF47DBCD}" type="CELLRANGE">
+                    <a:fld id="{59923BA8-F201-7B47-83BC-BFD2CC923882}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1185,7 +1044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24D51E2B-8687-5645-B547-2592BF09438B}" type="CELLRANGE">
+                    <a:fld id="{669E8DB6-B696-C64B-82C3-95587B358284}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1218,7 +1077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7845917D-D0B0-FC49-8F5F-DF3747332F01}" type="CELLRANGE">
+                    <a:fld id="{E9F53FDF-76CE-7648-8DF3-F827FE71157B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1251,7 +1110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AA95108-1102-B444-95E5-721F98921511}" type="CELLRANGE">
+                    <a:fld id="{861C01D3-0306-0842-90C9-8E6915A021EA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1284,7 +1143,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B99BB27D-42AD-464C-8A71-D7D3E592ABED}" type="CELLRANGE">
+                    <a:fld id="{BE54DA6B-A6D1-AC4F-AC42-9232D7FE2160}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1317,7 +1176,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECF6FC97-4415-E34F-B75D-42C93084BCC5}" type="CELLRANGE">
+                    <a:fld id="{09BB5AE7-19D0-BB4F-854E-9FF9A7C51038}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D7C12FD-9E61-844D-9FCC-B6A56692690F}" type="CELLRANGE">
+                    <a:fld id="{3EBF15E0-1EE7-FA44-8E5B-ED94501EEFDC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1383,7 +1242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EBECB1A-01BE-154F-8FA5-50D19A1B19C0}" type="CELLRANGE">
+                    <a:fld id="{F3FFD28E-13E0-4A49-873F-D19FA9D7D1E8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1416,7 +1275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2F23127-8A0D-FF47-A6E7-E96602B61192}" type="CELLRANGE">
+                    <a:fld id="{306FB6FA-34A9-8247-98FF-498F3DECE318}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1449,7 +1308,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC5DAD7C-2497-7547-9071-A127BB8E1DD9}" type="CELLRANGE">
+                    <a:fld id="{B08FA5D3-5372-874E-8738-2EDB18FB63FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1482,7 +1341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BC365F7-D0AE-884B-902D-D97ED70AE515}" type="CELLRANGE">
+                    <a:fld id="{9AE7584A-1384-BA47-806F-2A348F1E377D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1515,7 +1374,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1A041ED-0B70-EA47-A188-B74175E1800D}" type="CELLRANGE">
+                    <a:fld id="{7A35DFB0-2080-A743-8F0D-5E1A55D7F925}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1548,7 +1407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D3A03DB-6A3A-6449-B29C-83F8B17FDCF1}" type="CELLRANGE">
+                    <a:fld id="{C6CD0F50-862C-214B-9C81-7DF6C7909886}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1581,7 +1440,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9581C933-3BB5-2142-B0E3-B611BA10B594}" type="CELLRANGE">
+                    <a:fld id="{8A547D95-589E-574A-ACB9-87FC3F5FE441}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1614,7 +1473,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D81D698-E875-C144-8B54-B12F0E7DA3E5}" type="CELLRANGE">
+                    <a:fld id="{4EFDD1EC-D8FB-444C-8F9F-78E1D9E6FF3C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1647,7 +1506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69559C54-03D0-F84F-8F48-EB6B2D1BFC4D}" type="CELLRANGE">
+                    <a:fld id="{29350A16-4885-A84C-B022-05DBB4BE1C17}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1680,7 +1539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A546435F-5C3E-C043-8221-F4F2D474CC1E}" type="CELLRANGE">
+                    <a:fld id="{5B6C8067-03A1-2748-82AD-74C1B588EECD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1713,7 +1572,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83ACDFD2-2671-0F4A-A52A-7813246C68CA}" type="CELLRANGE">
+                    <a:fld id="{92FEDD94-8DEA-BB43-AEE2-F03FC6182928}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1746,7 +1605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E83E4C1-66D5-6F40-9C52-781423DC957C}" type="CELLRANGE">
+                    <a:fld id="{C6F58FEE-60F5-374D-A8D6-79C2A9A253C0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1779,7 +1638,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDC3E166-7457-4742-BE82-615EEB370229}" type="CELLRANGE">
+                    <a:fld id="{55E93F3E-0816-AF48-985F-0F83056A6236}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1812,7 +1671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BF5EAEC-16EC-1744-B067-4F1127158A49}" type="CELLRANGE">
+                    <a:fld id="{5D30529E-86FA-FA4B-8AB0-8DBB1FE11EAE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1845,7 +1704,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0B48819-3FF4-A341-B2CF-93FD850C55CD}" type="CELLRANGE">
+                    <a:fld id="{1AA3CEDF-1C5A-5249-924F-516C19914B16}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1878,7 +1737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{070958D4-3230-6E42-9E84-9ACFA20D0E40}" type="CELLRANGE">
+                    <a:fld id="{0F73AAA9-CC22-2343-85C7-021D926BFFEF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1911,7 +1770,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{716FA989-6CC7-EA49-AD5C-D0CE90F9B5F8}" type="CELLRANGE">
+                    <a:fld id="{A482D9AC-F287-B94E-A408-915F566465C0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1944,7 +1803,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7CE3D68-2AB8-6246-830C-F3B511075AB1}" type="CELLRANGE">
+                    <a:fld id="{E4E4BF46-BBA0-1941-8473-9A3F830D1139}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1977,7 +1836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4AF8C8C-2246-6C4A-BBC7-FDB82861AA7A}" type="CELLRANGE">
+                    <a:fld id="{0950128F-5785-DE42-8385-F690D4E204C2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2010,7 +1869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BD9B0D0-81B2-294C-B1D0-259D8EA1CC30}" type="CELLRANGE">
+                    <a:fld id="{5435B8C8-6F6B-4240-B46D-75BD01E3E1D4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2043,7 +1902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA0A8FFB-3CEA-E640-9722-22B5290EA344}" type="CELLRANGE">
+                    <a:fld id="{0FB60C29-A758-C048-8D70-CA7D0A04ED50}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2076,7 +1935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DE0D034-A555-D242-BF34-E7902DCB71F2}" type="CELLRANGE">
+                    <a:fld id="{D569F770-F178-0141-8713-9E0B222CFBD8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2109,7 +1968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA34D83B-30DB-A44A-97DA-3CE0BCD50DEF}" type="CELLRANGE">
+                    <a:fld id="{29991B5D-CBAC-F848-B1AB-CD2920620F40}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2142,7 +2001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C04BCB65-CD3B-6242-827C-9B7E865CAAEB}" type="CELLRANGE">
+                    <a:fld id="{0C7F75AA-FA0E-964B-AEC1-16D94E2C860C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2175,7 +2034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{789AE202-F653-B149-A5C4-6F272885354C}" type="CELLRANGE">
+                    <a:fld id="{7B8BE49B-C4C2-124F-88A4-19CD43E99BA6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2208,7 +2067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0557D263-87D6-3B41-AEFC-618BA4581149}" type="CELLRANGE">
+                    <a:fld id="{ACA61C38-DC86-BA4F-99FA-E1B638605C1A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2241,7 +2100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{067597E9-D17F-1441-83F3-8305DCFD92E7}" type="CELLRANGE">
+                    <a:fld id="{5F1A4C46-8E11-2C40-A4F5-66621C73677E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2274,7 +2133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D62DE61-401D-3D43-824A-B9143A5DB845}" type="CELLRANGE">
+                    <a:fld id="{85AE620C-DF1B-184F-BFCB-64855144C99D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2307,7 +2166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC12A608-C40B-EA4E-A6EF-1FF3FC3E578C}" type="CELLRANGE">
+                    <a:fld id="{F1BD7A89-66F1-C74F-A8DE-3C6CBEA7DAE6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2340,7 +2199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8262856D-5EDC-9947-A88F-7AFDFF6A68B0}" type="CELLRANGE">
+                    <a:fld id="{960CBC12-182C-ED42-BB8B-088CF4C9D0B5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2373,7 +2232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{042C1463-7A99-684E-BE3E-7778FD042833}" type="CELLRANGE">
+                    <a:fld id="{0BECC0C7-0531-BB47-AA63-7C674E7047CF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2406,7 +2265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CF0BABB-BF83-1B41-86C2-B228F9D6A82F}" type="CELLRANGE">
+                    <a:fld id="{EE70F31B-1FBD-1042-A7D4-F6E9B1E620F5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2439,7 +2298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2E07CA3-F5AE-8D40-A327-6E4BAE25C87C}" type="CELLRANGE">
+                    <a:fld id="{2D27305A-6F53-3F4D-B7BD-8B5F8AD8A4EE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2472,7 +2331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1222E6B4-8AA7-DD41-B695-4DD7B1BCE912}" type="CELLRANGE">
+                    <a:fld id="{EF54A135-43CB-1E4F-80EC-AC5DB390B055}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2505,7 +2364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34C60BFC-CB62-5244-BB9E-8F9E8FB040C8}" type="CELLRANGE">
+                    <a:fld id="{8F0F5416-3F48-5E42-8AD3-5E9444291916}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2538,7 +2397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6604F958-22AA-8C45-94FC-BC4F06B97D7F}" type="CELLRANGE">
+                    <a:fld id="{9038CDD9-C9A1-9744-A19B-BB2D05A65E39}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2571,7 +2430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9469D13-668D-2C4A-A71F-1D14A3E54D0A}" type="CELLRANGE">
+                    <a:fld id="{8FB4E055-507E-9745-AE06-0BB7E46A9FCF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2604,7 +2463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D37E8F51-C908-2F46-BD8A-14ED6674E0DD}" type="CELLRANGE">
+                    <a:fld id="{F516E621-AE36-3241-924A-14D0D7B8704D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3706,7 +3565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F164D76-E9C4-314B-9F8E-0F22BFE0D595}" type="CELLRANGE">
+                    <a:fld id="{FB0052B1-783B-DF41-B0C7-9B6CAB94276D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3738,7 +3597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79FC05F8-F125-8C43-BBDD-5D5B78219AC1}" type="CELLRANGE">
+                    <a:fld id="{30B7C8C8-6FF7-3C40-94E8-D0479F5AC34D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3771,7 +3630,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5396A4A8-78F0-404E-9580-D156F305E21E}" type="CELLRANGE">
+                    <a:fld id="{509F2A9D-7023-FE4A-BBBC-A9947BE0C7AF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3804,7 +3663,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFA31F39-9FD1-B54B-84C2-42D03CE890C0}" type="CELLRANGE">
+                    <a:fld id="{2F02A12E-2B33-B24A-A66F-5F8823B79D74}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3837,7 +3696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1742B996-0674-2349-9F98-D7688D43B3D7}" type="CELLRANGE">
+                    <a:fld id="{983A99E1-49B5-1B42-9ADB-DB6FB491EC6E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3870,7 +3729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F75320A7-699E-5D4F-841B-467C3A2BAEFA}" type="CELLRANGE">
+                    <a:fld id="{7EDE73E9-B402-8B43-9A83-47E2C8534D6F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3903,7 +3762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21D453B0-A9E0-1646-9703-1B8E0BFC4D5A}" type="CELLRANGE">
+                    <a:fld id="{54CBFEB4-40EA-524C-93A6-333C70FCDC47}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3936,7 +3795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E13ECC4B-BED8-EC44-A8C3-5E02B1900977}" type="CELLRANGE">
+                    <a:fld id="{DE864574-0A42-4941-9E1C-8B2C6D104D1A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3969,7 +3828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45A65F01-B7F9-1844-B762-9DE592F1FF82}" type="CELLRANGE">
+                    <a:fld id="{36B827CA-7A91-794F-9FFF-784E21118AEA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4002,7 +3861,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AC539D2-1F32-C248-A733-4B4D9185360F}" type="CELLRANGE">
+                    <a:fld id="{908B7CAB-F72C-A342-B381-09A00F4107E4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4035,7 +3894,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A57FED7-8AC5-1240-86F8-2ABC5D84F447}" type="CELLRANGE">
+                    <a:fld id="{5608D11E-294F-AC44-847C-F3106A24688F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4068,7 +3927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA425052-0EF8-7243-B23E-DE61FFE118FA}" type="CELLRANGE">
+                    <a:fld id="{9343989F-C9A6-224A-92DA-6AB64EBAF9D9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4101,7 +3960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD3B7B5E-AFEC-AD4A-AE52-971E66F100E5}" type="CELLRANGE">
+                    <a:fld id="{36FB7133-0159-994B-ACF3-646D51509801}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4134,7 +3993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57CCB1B6-DAEE-AC4D-8B70-52A28A6C1D3E}" type="CELLRANGE">
+                    <a:fld id="{CF7181D3-9BFB-8049-B652-615BFB52328C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4167,7 +4026,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22F16013-4792-8B4A-9714-DC0BA74BB7C1}" type="CELLRANGE">
+                    <a:fld id="{866BC2E5-601C-0242-8C57-19607FCB0274}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4200,7 +4059,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7003378-FA0C-0742-A316-54D1515D14CE}" type="CELLRANGE">
+                    <a:fld id="{898E5B95-1F6A-BE43-90FD-4180BD96977D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4233,7 +4092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29AB0A60-9BED-C147-B61F-68061CD0E410}" type="CELLRANGE">
+                    <a:fld id="{1492CFE5-E7DD-F140-9BCD-15F2F9FA7271}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4266,7 +4125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CD5A29C-9921-9640-B986-5B6305FE6848}" type="CELLRANGE">
+                    <a:fld id="{E892D3AE-CF22-534D-8FB0-614B21FCE36F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4299,7 +4158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7B83061-564C-C540-8D5A-A1897C1BE3F3}" type="CELLRANGE">
+                    <a:fld id="{DF4F74E8-45B3-6B4A-8D08-243CE881A706}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4332,7 +4191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{890603B2-02A5-FC43-99F5-E92A5475D4E2}" type="CELLRANGE">
+                    <a:fld id="{28EE1C59-4E2F-7344-9E72-2AABC959831C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4365,7 +4224,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{921B6EA4-5F90-B349-98A4-F6E489380D54}" type="CELLRANGE">
+                    <a:fld id="{02AC0861-C1EF-4144-8628-B6556A54CEEB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4398,7 +4257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E09FC318-F8A3-FF44-8F1A-4FF637BB64D1}" type="CELLRANGE">
+                    <a:fld id="{10D6502B-52BA-074D-A5EA-5479F35CDEDC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4431,7 +4290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B94D4164-1179-E449-AA1B-267B2C8957B0}" type="CELLRANGE">
+                    <a:fld id="{2BC764D2-4FEC-F945-8658-72E070C8D217}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4464,7 +4323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5606F808-A165-2B49-8875-CFB8D3404B01}" type="CELLRANGE">
+                    <a:fld id="{93A51FF1-C5BC-F340-8F4B-87E3F3EC8F07}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4497,7 +4356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C24BCCF-39E7-E843-975A-9CDB78B62A98}" type="CELLRANGE">
+                    <a:fld id="{C18DA70F-4E99-6143-A3A8-CEBF0277A7A2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4530,7 +4389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B284479A-3863-B14C-B01B-21CCCAEBA901}" type="CELLRANGE">
+                    <a:fld id="{1EB4D482-019E-6B47-A2BA-87709973C123}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4563,7 +4422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F98A1CE-C535-1242-AB34-3B0E7E3C19FC}" type="CELLRANGE">
+                    <a:fld id="{39CF7D0F-DC69-2D44-B4A1-D86E607C7DA5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4596,7 +4455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF38FD99-D74B-3146-BEC9-4552A0C99A5A}" type="CELLRANGE">
+                    <a:fld id="{8D382B8E-F356-014B-8979-6430AAEDAB37}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4629,7 +4488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD2F90B8-8D71-E447-AB47-166E7E018E65}" type="CELLRANGE">
+                    <a:fld id="{895BB6AE-7DFE-BC42-8370-7BEBB26E3873}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4662,7 +4521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F1840E4-6A0B-FD4F-A47E-AB1D2987D2B9}" type="CELLRANGE">
+                    <a:fld id="{FA576FAF-8E3A-2141-88C2-7EC76F630475}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4695,7 +4554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F757044-AD19-3B43-96C0-0488DF529763}" type="CELLRANGE">
+                    <a:fld id="{075B6EF0-B6B5-F54A-BF6B-9EFF5E1CDAD6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4728,7 +4587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEE86AE5-D602-C344-8504-F0A168CE16FB}" type="CELLRANGE">
+                    <a:fld id="{D202B483-4E1B-0A4E-A7A9-35B0927D9352}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4761,7 +4620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE8CD8B5-D509-9447-9BB0-2D7E33CDF100}" type="CELLRANGE">
+                    <a:fld id="{70D8454F-3EF4-724D-8512-3805FCDA26C6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4794,7 +4653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B8D17D6-5748-C242-B6D9-633E4F227819}" type="CELLRANGE">
+                    <a:fld id="{8D9FC2D6-CCCC-DA47-B9BA-DCBA99F2FFE1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4827,7 +4686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EE93B19-86B7-8A4E-8D4D-FBA491ED94AF}" type="CELLRANGE">
+                    <a:fld id="{A17E30D8-2AF1-1148-8530-5FABF0D3438B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4860,7 +4719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79850094-A0A5-864B-80ED-84DF26C347BF}" type="CELLRANGE">
+                    <a:fld id="{0A00B976-69F4-0E41-8D77-21AC9274AD92}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4893,7 +4752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FF90232-4F10-6B43-9C3A-40AACAA62260}" type="CELLRANGE">
+                    <a:fld id="{F12794F6-1AD9-F042-BFDF-5E814B4C1D2F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4926,7 +4785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE845E2-019A-F448-8947-8765F61C86D1}" type="CELLRANGE">
+                    <a:fld id="{D91EF14F-6EF9-984B-9C20-31D15671F06D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4959,7 +4818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2397057C-9D21-8A4A-9876-61039F5FD01F}" type="CELLRANGE">
+                    <a:fld id="{FE1BC37B-A314-E845-88B7-711460D13CB9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4992,7 +4851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{163ED8B8-FC56-FA48-9CDD-4D9800013BB5}" type="CELLRANGE">
+                    <a:fld id="{84723AEE-E579-5D48-8CFB-455D2E496D0B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5025,7 +4884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E7DFC68-6839-0045-97F4-316D83A756C0}" type="CELLRANGE">
+                    <a:fld id="{5F1C691B-B347-DB45-B486-651643E92D77}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5058,7 +4917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20E4746C-8B7D-5D4A-8A5D-C107D87DE257}" type="CELLRANGE">
+                    <a:fld id="{63AF023E-ECD9-7F44-8F16-211F4ED5B102}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5091,7 +4950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80B99FC9-9C2A-0A4C-BC3E-5CB7F7F8CBD5}" type="CELLRANGE">
+                    <a:fld id="{5C5003C0-2677-A546-9C99-89DD8CAE63DF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5124,7 +4983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0434033-C687-DB45-AD41-218B9EAC7902}" type="CELLRANGE">
+                    <a:fld id="{40ED4355-F0FF-7747-9D11-A35293B4C0E8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5157,7 +5016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8EEA32D1-FE85-A94A-A2C9-DA630A707A86}" type="CELLRANGE">
+                    <a:fld id="{2BC498E3-D5AA-6A44-AA66-E4BD23395ED7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5190,7 +5049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4C72E3C-2DEC-9744-889B-A83E8F45B1A7}" type="CELLRANGE">
+                    <a:fld id="{4455D0DE-83EF-D848-84F1-272180987AC7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5223,7 +5082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99950539-D4B9-1D4F-834F-61A833EF8236}" type="CELLRANGE">
+                    <a:fld id="{929EA3B2-391B-9145-A68F-8E1043FF68C7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5256,7 +5115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCDAA2DA-6469-D048-869B-7657BF1C9B82}" type="CELLRANGE">
+                    <a:fld id="{11C63338-9B97-F640-AAA0-D61C5BFC9819}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5289,7 +5148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A08F7F6B-4E03-E442-82B2-E3F14D007995}" type="CELLRANGE">
+                    <a:fld id="{5958BE27-6887-FB4B-A6BC-03C5E42205F6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5322,7 +5181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88137C69-5A0B-E749-83CE-3E160DE118F3}" type="CELLRANGE">
+                    <a:fld id="{F1EAFCC6-1159-8F46-9287-BB4DE39BDFDA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5355,7 +5214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0B8400C-6608-FE41-8136-0657F35AAF66}" type="CELLRANGE">
+                    <a:fld id="{87C9FA21-9AEE-F448-8C0A-7D062C63D7EB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5388,7 +5247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4626AEA4-198E-EA45-A8F6-9DF507688CAD}" type="CELLRANGE">
+                    <a:fld id="{C4B741CF-C829-F640-B431-F7AD9FC7A4D8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5421,7 +5280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F33345DD-0F4A-E547-9204-6B893AE6B22A}" type="CELLRANGE">
+                    <a:fld id="{5B15CC7B-E523-4F49-B9EC-91F03C94FEB0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5454,7 +5313,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2B486BB-327E-2E47-A13B-25BB82092894}" type="CELLRANGE">
+                    <a:fld id="{2666F002-AFEF-6E43-8446-7E8A547E1BFE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5487,7 +5346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0072652-653F-4649-B245-4E80695F8108}" type="CELLRANGE">
+                    <a:fld id="{27C0A026-37AD-4C48-91A4-9E1362FC0BEF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5520,7 +5379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CED3DD68-10EC-D74C-8702-BBA8A3CC114B}" type="CELLRANGE">
+                    <a:fld id="{E0F5A021-73C9-E241-9017-E33A2D0E69E7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5553,7 +5412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C8A14EA-B2D2-0F46-849F-7E1BBC3E8CB7}" type="CELLRANGE">
+                    <a:fld id="{EC796708-5A78-6649-8D0C-FA61304048D2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5586,7 +5445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{550CDBDE-9CD1-EB4F-8625-548D408CE791}" type="CELLRANGE">
+                    <a:fld id="{9637A70C-C75E-5046-8510-15FC5D3341C8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5619,7 +5478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56F61FAA-B573-664E-B6F5-CCFAEF8E0B9F}" type="CELLRANGE">
+                    <a:fld id="{C83B40B4-EAC0-FF45-9D28-8042640F0C69}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5652,7 +5511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA2D9523-FCCA-7848-9F2E-A3720C8FFB75}" type="CELLRANGE">
+                    <a:fld id="{611FA899-4CBA-3B4B-8C9F-AA462F94770F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5685,7 +5544,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCDBD1C8-E338-9F41-A373-484FE02F7B4A}" type="CELLRANGE">
+                    <a:fld id="{E6A8E0D2-5AB3-CA4C-B3E0-24586E3D71F0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5718,7 +5577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95A18F48-E611-FA46-88AA-98D6EE867689}" type="CELLRANGE">
+                    <a:fld id="{61080B81-8FFC-DE40-9093-497F01591374}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6871,7 +6730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B549F53D-C7E8-8B45-BD6E-474612A6B221}" type="CELLRANGE">
+                    <a:fld id="{57A53282-26F4-BB44-8E88-B4C1CA9389EE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6904,7 +6763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{075B529C-3B19-3B47-A715-7C5294889D21}" type="CELLRANGE">
+                    <a:fld id="{8F4AA789-CCA9-7B4A-B7C6-0FB26EAA02EB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6937,7 +6796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EDFBF13-0CBA-414B-8ED2-99BFB4DDF832}" type="CELLRANGE">
+                    <a:fld id="{91E2F5E7-4919-8D42-B6C5-F47652D51FB0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6970,7 +6829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64D98EF3-6CD6-9E4B-B7E7-D079FFF85CF9}" type="CELLRANGE">
+                    <a:fld id="{75D92B9D-50FD-CB44-A4B8-EDDEFDE28D5F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7003,7 +6862,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8B26BE2-5A19-CA49-8041-11375593EF03}" type="CELLRANGE">
+                    <a:fld id="{40D73415-5E30-E146-85B0-B07E70C1AB97}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7036,7 +6895,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{467CAEA0-1FE3-C641-BF41-AF6CED227D16}" type="CELLRANGE">
+                    <a:fld id="{68F72EE5-187C-5F4B-9019-461FF1C13CB3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7069,7 +6928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3D1DE6D-6480-BE41-96BD-348FCDC938B3}" type="CELLRANGE">
+                    <a:fld id="{C59BCAC9-7566-9041-92C2-92D79D06C815}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7102,7 +6961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F5D7E7C-8A84-FC49-9FD2-9E1AB039E1DF}" type="CELLRANGE">
+                    <a:fld id="{1952C42F-E492-3140-8F71-33712394C764}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7135,7 +6994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD61D3D2-2996-FF49-BCB7-625ADD98B83E}" type="CELLRANGE">
+                    <a:fld id="{6CB00B4F-06B9-2D4D-B0DC-51CF2EF5A8A8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7168,7 +7027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D672FD4C-43DF-434E-B13F-5342A5A5B7E4}" type="CELLRANGE">
+                    <a:fld id="{03284A1F-B4B1-FA4E-8CFD-E5655CC35E6F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7201,7 +7060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CCFD95D-DF2F-DB4D-AA65-0C9A6618FCBE}" type="CELLRANGE">
+                    <a:fld id="{CEEC8A2B-7BD3-B04B-85C9-457CF395F25C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7234,7 +7093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2309916C-85E7-0C43-96C1-4FE00C278B6B}" type="CELLRANGE">
+                    <a:fld id="{71EBFE60-2F7A-0B49-8127-F332ADF98892}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7267,7 +7126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B815D946-FBCF-6D44-918E-ADCF97A42812}" type="CELLRANGE">
+                    <a:fld id="{21AE3C7C-2B47-D945-8DDC-1408D2101458}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7300,7 +7159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0EDF097-E9BB-DE44-84A8-859FFCB7F8FC}" type="CELLRANGE">
+                    <a:fld id="{66F7924C-0002-5949-BDEF-AA15D6CE670D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7333,7 +7192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEE18234-6484-9F43-B43A-F7FF310BD030}" type="CELLRANGE">
+                    <a:fld id="{7FE6F026-9A5F-1942-B535-E560AB4D27DD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7366,7 +7225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAA152D4-E989-C244-8EC1-8E7A1F3358A8}" type="CELLRANGE">
+                    <a:fld id="{AFE20A5B-51F3-2147-9624-2C57EDF5BF3C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7399,7 +7258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{920E9F01-AA7A-6F44-87C7-0A861D862735}" type="CELLRANGE">
+                    <a:fld id="{E25B1E4B-9021-7345-80F3-2607CB247CDA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7432,7 +7291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7F9C335-6068-EB40-8558-715BFADE4CF5}" type="CELLRANGE">
+                    <a:fld id="{213FE6F9-3BDA-5C44-B48E-21C39788469F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7465,7 +7324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71321FA2-11C7-F943-A107-05BD02B06AB0}" type="CELLRANGE">
+                    <a:fld id="{058DD432-8096-DB48-A993-967D8FD70AB7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7498,7 +7357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1640CA21-04A2-1145-A2E2-4BE4BCFCB41F}" type="CELLRANGE">
+                    <a:fld id="{CF12CD42-94AE-1043-8BAA-8DBF8E238D58}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7531,7 +7390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA55FE6E-40AE-1742-A079-6D2CC290C4B0}" type="CELLRANGE">
+                    <a:fld id="{42DD0598-2570-3F4B-AE5B-AD090AC263BB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7564,7 +7423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E51B5D5-0792-BF43-AF10-2D95A5807C86}" type="CELLRANGE">
+                    <a:fld id="{5608EC4F-D5ED-184F-A3FB-28C0E15EC87E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7597,7 +7456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65768AD0-1F71-1F47-8CBD-F7446014A4AD}" type="CELLRANGE">
+                    <a:fld id="{0BDACE34-DBF0-0944-A7FD-58368B29325E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7630,7 +7489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24179943-9AD6-194A-9B1E-62FCA6D25DF6}" type="CELLRANGE">
+                    <a:fld id="{B0CECDD0-96AA-9648-A716-5CA2B1CD172C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7663,7 +7522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02848240-FF95-904B-B113-F337D6E96B3B}" type="CELLRANGE">
+                    <a:fld id="{70568BBF-ED64-5549-AE76-D7486549253D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7696,7 +7555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97AE60E7-ADA4-584F-BBAB-28EF524FA07E}" type="CELLRANGE">
+                    <a:fld id="{338AA302-1C8C-9041-93E6-D25A11696068}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7729,7 +7588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A09CD905-F4F3-B749-B195-E5BAEA32C4BF}" type="CELLRANGE">
+                    <a:fld id="{F0EB6067-AE3B-6F46-B74B-E23DEAC0B629}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7762,7 +7621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40247087-D8B5-1243-AC31-93DCE9E42DCD}" type="CELLRANGE">
+                    <a:fld id="{0C35A16D-0E83-464A-AF4F-340457EF0103}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7795,7 +7654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA4BE60C-A561-B04F-8A0F-B2BAF0036BE2}" type="CELLRANGE">
+                    <a:fld id="{E3287A97-CF46-FA43-B783-02E3B93F2865}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7828,7 +7687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0016D8BD-6211-F04B-89EC-68013788A981}" type="CELLRANGE">
+                    <a:fld id="{D1D2BED7-BD66-BE49-B030-9763795AF9D6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7861,7 +7720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A782A2C0-7469-204E-BBC3-F739727C8C96}" type="CELLRANGE">
+                    <a:fld id="{9240186D-19B0-C54E-A1D2-E0AD17585881}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7894,7 +7753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68C041C9-DCFC-E94F-86DC-A9735747925D}" type="CELLRANGE">
+                    <a:fld id="{9801BFB1-11BF-BF40-A453-153024CC6842}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7927,7 +7786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93BCD271-762F-8143-8E25-24605833ABF7}" type="CELLRANGE">
+                    <a:fld id="{C9F015C8-7CDA-744F-BED9-177EA2BD3E73}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7960,7 +7819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D31184A-38EF-B74E-BB4F-F74C40CB0788}" type="CELLRANGE">
+                    <a:fld id="{445E2015-C1E7-4A4E-989E-4A336752BFA6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7993,7 +7852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F95CAB1F-4FBC-6F4C-8E23-55C3EC6C4C4A}" type="CELLRANGE">
+                    <a:fld id="{741818BD-7205-244B-A0F8-AC5FC03C3FAF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8026,7 +7885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9D19FA9-8EC6-9E4B-B3E9-BE652085F6E9}" type="CELLRANGE">
+                    <a:fld id="{92A37623-DB8E-7440-8FC4-FB78C90A8370}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8059,7 +7918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D65DDF0-0940-8B48-AC0A-E32AC5FE37AE}" type="CELLRANGE">
+                    <a:fld id="{EC53412B-55F3-F046-9C18-6CC14B216249}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8092,7 +7951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CD7533C-C51D-3E4B-9140-EDD365892107}" type="CELLRANGE">
+                    <a:fld id="{86575E32-01AE-2E4B-A839-5D281F58291E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8125,7 +7984,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{503298B9-847D-F84B-90BE-4E41FB8538FF}" type="CELLRANGE">
+                    <a:fld id="{654FDA55-0115-EB49-8DFF-CD9335E5E97C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8158,7 +8017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6DFFC78-5861-1041-A2B5-01278651A5DA}" type="CELLRANGE">
+                    <a:fld id="{F1327A27-7A69-5244-9B31-CC17CD44FDC4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8191,7 +8050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54EE3CAB-67FB-6E42-9FB4-FDFBA10CFCC9}" type="CELLRANGE">
+                    <a:fld id="{4DE925A7-6304-704A-9673-10E6F7A947A3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8224,7 +8083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A3E4762-CBF0-A949-AEB7-F0F319B1D87E}" type="CELLRANGE">
+                    <a:fld id="{16FFDABB-A35A-AA48-93A2-561ED9AC1AFD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8257,7 +8116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11CC8E54-50AB-FD4A-8FBB-91F8763E24F2}" type="CELLRANGE">
+                    <a:fld id="{3A1F96DE-4FC7-EF42-B76B-C80A9638D1AF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8290,7 +8149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FCAF367F-01FB-EC42-A57C-6511F2FE28FD}" type="CELLRANGE">
+                    <a:fld id="{C2699B9C-4718-C34F-A6D0-802D27EB557E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8323,7 +8182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40750195-74E7-1042-A5D2-98E8B193222F}" type="CELLRANGE">
+                    <a:fld id="{AF104FA6-685F-C94E-8D90-AE97759C5CD1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8356,7 +8215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCEF6503-14C0-214B-B4CA-5CCD2C87D4B3}" type="CELLRANGE">
+                    <a:fld id="{FE8149BE-0F8A-384C-BEFF-EA64BC5B1B85}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8389,7 +8248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9061C333-FBE9-5D4E-8FD8-0670D9339524}" type="CELLRANGE">
+                    <a:fld id="{AEAA15A8-05CB-4B4C-8A9B-3D087EFB498E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8422,7 +8281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6C8A767-AB8D-EA43-B89F-AE198A4572AB}" type="CELLRANGE">
+                    <a:fld id="{23D206D9-AACC-3E42-A181-BD70F5FE5C6C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8455,7 +8314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{208982D1-5498-3A4B-AF2A-234DAFA294BC}" type="CELLRANGE">
+                    <a:fld id="{36C4369B-6D15-7A4C-A5ED-A22080E2DFC6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8488,7 +8347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FC54BBA-F581-844D-AC10-3FFD0C7B2914}" type="CELLRANGE">
+                    <a:fld id="{417BD0AF-965C-7746-BB0B-FB347BF8EFDB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8521,7 +8380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0368C73-4EE1-D24B-8E35-281EA36AB7F5}" type="CELLRANGE">
+                    <a:fld id="{619387B8-7162-544B-AE56-C37AB7382513}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8554,7 +8413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9D81BB6-BC42-424D-8684-4C1EC0A8CA6A}" type="CELLRANGE">
+                    <a:fld id="{5BC0C30F-12D2-F347-8457-E2F2CE2EA8D8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8587,7 +8446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A376DC47-B6E1-6846-876A-82F5E6098D2C}" type="CELLRANGE">
+                    <a:fld id="{4AE9143E-DE8E-0344-964D-384C6E7611F9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8620,7 +8479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A19C635-4D48-FC42-8A13-87BBCB911DF9}" type="CELLRANGE">
+                    <a:fld id="{E481BD9F-8BE0-7648-B032-8AB09FBF6D78}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8653,7 +8512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{718DF758-13EF-0445-BF81-022BAAF5C092}" type="CELLRANGE">
+                    <a:fld id="{82761871-229A-C040-B033-623EBCC9A14A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8686,7 +8545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC4F4117-D532-2846-9F2D-E99B6A6B706C}" type="CELLRANGE">
+                    <a:fld id="{7B799273-B949-F246-B014-12281E966982}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8719,7 +8578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{850D3745-9DAE-924E-AB19-2612B854653B}" type="CELLRANGE">
+                    <a:fld id="{36B39870-4C5B-BE40-B12D-C7B511AECB47}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8752,7 +8611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{824DA0E6-361B-1146-8B08-E32EF788BBA6}" type="CELLRANGE">
+                    <a:fld id="{1303F406-7548-734F-BD6C-D685A65DAB64}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8785,7 +8644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B399C433-1666-0347-9ED8-2B53BA60A4FB}" type="CELLRANGE">
+                    <a:fld id="{C4540988-FCC9-814C-B16F-DA9A4977A068}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8818,7 +8677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A315EBE2-5AEA-A540-BA26-C7F556FE93F5}" type="CELLRANGE">
+                    <a:fld id="{888D9A74-7368-E342-A4B0-2126695B6A18}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8851,7 +8710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3673147A-6F09-5E43-B18D-3470AC3019B7}" type="CELLRANGE">
+                    <a:fld id="{C6E9117B-4177-2D4A-AD22-1CC0E7FE340A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9990,7 +9849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF3D083F-721C-5E49-B363-7037783CE200}" type="CELLRANGE">
+                    <a:fld id="{9108BEA6-FD22-9842-BFDC-A2CA05E65EA7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10023,7 +9882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCED4BAE-718F-3C4E-AFF1-AC51E9435F49}" type="CELLRANGE">
+                    <a:fld id="{B1EB9811-013D-AF4D-8043-99C1206771E5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10056,7 +9915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C087EB3-97A8-BB43-B7B4-9832B935C657}" type="CELLRANGE">
+                    <a:fld id="{FBEED8B9-952B-0140-AE31-69584092552B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10089,7 +9948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E668F60A-A51F-B741-AF0D-2EBADB4CDDCD}" type="CELLRANGE">
+                    <a:fld id="{C64BFB7C-2237-484B-AEC1-BBA49647B94C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10122,7 +9981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1C87942-A5B4-BB4A-B13F-24C103CB58F3}" type="CELLRANGE">
+                    <a:fld id="{D9454237-74C9-3249-8B4C-B0C9FCA9DE47}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10155,7 +10014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB3AC8FB-D450-4F4B-979B-CF8596110878}" type="CELLRANGE">
+                    <a:fld id="{85AB67BC-7B20-394A-B4D4-DCDEC5580F85}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10188,7 +10047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A20EEEEE-B999-784B-B702-EB8007A93B44}" type="CELLRANGE">
+                    <a:fld id="{D644D147-017C-1C4B-812D-99BF77A42E6B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10221,7 +10080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAB0BFAB-0095-E343-B3AD-B19894C49ECC}" type="CELLRANGE">
+                    <a:fld id="{041E2F0B-2556-B745-92EC-58C6F02D3329}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10254,7 +10113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A055840D-34D9-1E4D-8797-F0CB83589130}" type="CELLRANGE">
+                    <a:fld id="{DE7617B4-A3B4-704E-956D-B90E45B058DB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10287,7 +10146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{865CBE40-0C59-1342-A4DB-77CF835E79D0}" type="CELLRANGE">
+                    <a:fld id="{9C9A4802-C58A-EF4C-957D-DFE31745E871}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10320,7 +10179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB2E50DC-F2B2-A749-945F-9A9C007BF6BA}" type="CELLRANGE">
+                    <a:fld id="{7EC5DB60-3DD5-B445-A46C-0016B99E3557}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10353,7 +10212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{779664C5-E93E-7E45-9535-7E46173862D9}" type="CELLRANGE">
+                    <a:fld id="{78EFE5AF-7AE1-F945-8249-DCA6DE0B65F8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10386,7 +10245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06B856AE-CD62-764A-8E5E-91389AB2CE2F}" type="CELLRANGE">
+                    <a:fld id="{729899F0-78C4-EC41-B0BE-C73DAC167358}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10419,7 +10278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71B88F7B-B675-5143-AC2C-5C6CE639E868}" type="CELLRANGE">
+                    <a:fld id="{70C26C8F-FE51-5348-830C-CACAA00A2C57}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10452,7 +10311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C219ED39-3529-1745-8FA2-66F763E576DE}" type="CELLRANGE">
+                    <a:fld id="{A77E419F-AEC4-784E-89A0-B4113E9A0CDD}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10461,7 +10320,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{AE99AE08-7BB2-8A47-8CBF-F02983A009FA}" type="SERIESNAME">
+                    <a:fld id="{CA6248BE-58E9-1E45-A995-1C9B13EAF5CC}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[NOMBRE DE LA SERIE]</a:t>
@@ -10493,7 +10352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F84C253-5836-AF47-8B34-2B19154DB16C}" type="CELLRANGE">
+                    <a:fld id="{1E6F62B2-E52C-904D-A922-94EEF9DCF816}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10526,7 +10385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E662F38-53D9-9D4C-BB77-70AF71481011}" type="CELLRANGE">
+                    <a:fld id="{538DCF11-E627-394F-AE03-666720F78BEF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10559,7 +10418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F45D555-BE78-3344-9CED-00036D8AB086}" type="CELLRANGE">
+                    <a:fld id="{FDDB1AFB-B265-C849-8D18-339CCA301205}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10592,7 +10451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18F88D74-DE3E-4E47-A4CA-5F8086200EC3}" type="CELLRANGE">
+                    <a:fld id="{50CF2B5C-B8D4-F249-A43F-88A77B10EA43}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10625,7 +10484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9821BC1C-F673-7549-888D-328388AAF2CB}" type="CELLRANGE">
+                    <a:fld id="{DCA624CA-BC8B-4641-B955-81C2C86DE109}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10658,7 +10517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BDEB4B5-9E1B-674B-B88A-634E9E3C22D9}" type="CELLRANGE">
+                    <a:fld id="{D0C926A4-004D-904B-92FC-7B8DAC32F1F4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10691,7 +10550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAC521B3-C633-2A4F-B9CB-95264012E13A}" type="CELLRANGE">
+                    <a:fld id="{E1BF74BE-4E19-7F4B-9665-C19DDD148A76}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10724,7 +10583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{038DAA39-8B57-CA4B-B907-71E000B7CDE1}" type="CELLRANGE">
+                    <a:fld id="{B788CB6B-2092-DE40-A50C-A9CBDB3B13CC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10757,7 +10616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E45BF865-41DC-A643-9DAE-E5DA6B397F86}" type="CELLRANGE">
+                    <a:fld id="{E1671BA7-F2D1-754A-8AC6-A7E8DEAEA703}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10790,7 +10649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0995257F-5C36-864A-BC7E-CB189B3E49C2}" type="CELLRANGE">
+                    <a:fld id="{20D49CA5-340D-B045-8BED-15DC6F3DF59B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10823,7 +10682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0903BD7D-E2C4-EC41-B237-33983E145460}" type="CELLRANGE">
+                    <a:fld id="{052E1191-575C-CD4A-BB2B-6A2C10D9008E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10856,7 +10715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BD22B69-F5A4-764A-A83D-EFC0D2F5A647}" type="CELLRANGE">
+                    <a:fld id="{0800EEC4-B3DD-564B-8A0A-BDC73AD59409}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10889,7 +10748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18F0D74C-7085-C74A-B772-9B4CF823555F}" type="CELLRANGE">
+                    <a:fld id="{57C65C9E-53E7-214C-9B4E-A75A6BAFD92C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10922,7 +10781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A1AE775-B4ED-A64C-BD77-A5AB13F6CA86}" type="CELLRANGE">
+                    <a:fld id="{EF06EAB2-1839-254D-96EF-F8136CCAA2F7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10955,7 +10814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DE75E94-67D3-4745-91C2-5373451EA48E}" type="CELLRANGE">
+                    <a:fld id="{979CD130-484D-3E42-A45D-BFE80C60036F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10988,7 +10847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9ADACC2B-2738-254A-B475-804A1CEA0A21}" type="CELLRANGE">
+                    <a:fld id="{D3DF324B-CCEE-194C-A4FE-04DAD03D5DC6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11021,7 +10880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B1C47EA-C119-6F45-9260-BF9202418C6B}" type="CELLRANGE">
+                    <a:fld id="{B94F8B86-C9CE-A34E-9F13-38BD140BBF84}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11054,7 +10913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{231B6B13-0850-514E-B08C-AD3269C2F239}" type="CELLRANGE">
+                    <a:fld id="{B59B36B1-A174-C14B-810D-C9DD7520EF3E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11087,7 +10946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24B42B0A-2CD3-4C4A-A9E1-9E1C6CB3144A}" type="CELLRANGE">
+                    <a:fld id="{306A1F97-6AE4-524E-8B51-5FC9A145E936}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11120,7 +10979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D0ACB35-04ED-AB42-80E4-DBCA769207FC}" type="CELLRANGE">
+                    <a:fld id="{315431B2-3F45-FD4A-AE90-281136B015DD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11153,7 +11012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02A46C82-551F-F44C-9094-77B3012D858A}" type="CELLRANGE">
+                    <a:fld id="{0C71526E-ACB8-9D4F-B550-C894F25DC246}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11186,7 +11045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3F09C22-4779-1148-8FD3-DC45C3A16608}" type="CELLRANGE">
+                    <a:fld id="{33E8B2AB-68F9-694F-B831-F78DE545AB94}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11219,7 +11078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7297E657-A69F-F646-9193-CB65727A8E10}" type="CELLRANGE">
+                    <a:fld id="{AF806AF9-FA49-3F41-8951-B6DE13865EC5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11252,7 +11111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CB1860D-DC50-7B45-AC9E-3D1BA3FA7738}" type="CELLRANGE">
+                    <a:fld id="{0AAFE016-D480-564A-85D7-6115177D9BD5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11285,7 +11144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{700C17AD-00D4-CB4B-81E9-17493D5A990B}" type="CELLRANGE">
+                    <a:fld id="{E481CE4A-810C-3740-AD45-91E3A64D8E31}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11318,7 +11177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3325C4AC-8055-DC4F-8995-172E66E96DBF}" type="CELLRANGE">
+                    <a:fld id="{A4DF61A5-2B1E-134C-A6FA-6CA141392D10}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11351,7 +11210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4294E49B-4230-014F-A504-5C893DCC4C43}" type="CELLRANGE">
+                    <a:fld id="{E3336B07-892B-7A4E-861C-55A80D76DD09}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11384,7 +11243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C435C52F-DF49-7F4C-9081-032A2F9A710F}" type="CELLRANGE">
+                    <a:fld id="{5EB9335B-44AD-2142-90E4-2E2FF3BD29A3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11417,7 +11276,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D29ECF60-DD47-DC4B-987E-6B25555DB789}" type="CELLRANGE">
+                    <a:fld id="{29870FF3-FFBA-434D-B681-53905F52555F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11450,7 +11309,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F28C34D-C59B-824C-A481-816AD799698A}" type="CELLRANGE">
+                    <a:fld id="{1CA02D88-B43E-A244-8255-887170E457D9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11483,7 +11342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1799DC6-4010-6247-A733-B5EC7DEB5ACE}" type="CELLRANGE">
+                    <a:fld id="{D17DAC72-AE73-3B4F-B468-9730BA9E12B4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11516,7 +11375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0C18E9B-5716-0A46-A107-4D83C555FC9D}" type="CELLRANGE">
+                    <a:fld id="{7D001231-087E-324E-BCFD-97B2B3BB88E3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11549,7 +11408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2040A72A-90F1-6843-B254-472DDD6AC79B}" type="CELLRANGE">
+                    <a:fld id="{0330FE96-805B-264C-B887-257289FA18BE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11582,7 +11441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F717A3DA-88BA-3F4A-B943-CD1A22766DD5}" type="CELLRANGE">
+                    <a:fld id="{5993A025-D7A7-0542-9361-6BDF50B61914}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11615,7 +11474,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0D88489-2761-3E49-B28C-0752FE3ED938}" type="CELLRANGE">
+                    <a:fld id="{91A3AE09-2E11-324A-AAA4-745E865E8C73}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11648,7 +11507,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C500DC-DAF4-B149-82B6-838B889B6952}" type="CELLRANGE">
+                    <a:fld id="{BB0DECE6-4FEB-C946-9A0E-D5DAF78BF864}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11681,7 +11540,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78178AED-ED4E-DA4A-A0BF-2313F88E83D6}" type="CELLRANGE">
+                    <a:fld id="{F9DF0EB3-127F-824E-B023-94398E94881E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11714,7 +11573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FECE739C-6DCD-9541-93D4-7E09ABD6034F}" type="CELLRANGE">
+                    <a:fld id="{09BAF714-C012-7F4E-BC45-120ECF7899B1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11747,7 +11606,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30A7AFF6-9FC3-794C-B78E-CD776F24018E}" type="CELLRANGE">
+                    <a:fld id="{29BB2DA6-1681-964D-9EBF-536F51D6AE9D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11780,7 +11639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A91F8608-3319-184B-982E-7724DFD1988C}" type="CELLRANGE">
+                    <a:fld id="{79F4EEF1-5C67-6D40-B053-54E1536B1A40}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11813,7 +11672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{017B8CBD-BEC6-2444-9286-9D587181099F}" type="CELLRANGE">
+                    <a:fld id="{5D30E5BE-C949-AC4B-B642-40598B12C2B8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11846,7 +11705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E045BE5-C9DC-0B4C-A7C1-BAC61FC27E97}" type="CELLRANGE">
+                    <a:fld id="{7DD98576-7253-8049-8F5F-6E821FD6B62B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11879,7 +11738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5FAB416-B153-8C42-8115-B29530D03604}" type="CELLRANGE">
+                    <a:fld id="{E44E967A-C8E1-164B-AC83-57557ADCB545}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11912,7 +11771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4293D00D-99A6-D441-B388-5CEE164DF6CC}" type="CELLRANGE">
+                    <a:fld id="{C3FFCA9E-DA56-E644-83C0-1AA4922D820D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11945,7 +11804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59821228-C28B-504B-8AB1-F8403008B34A}" type="CELLRANGE">
+                    <a:fld id="{EB31250F-33AC-B246-9FD8-02BA78C86F3F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11978,7 +11837,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{023A9010-BFE3-AB4C-989E-3598BE88FD00}" type="CELLRANGE">
+                    <a:fld id="{2B2F1CE7-753D-8F4F-89C6-69EE90BF32AC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13016,7 +12875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B257E246-C29B-404D-8AE3-853367D96F47}" type="CELLRANGE">
+                    <a:fld id="{D78F3574-5020-8144-9485-8871203C8191}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13049,7 +12908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B4C7B0E-EE61-D943-A0E7-473E1DFE741B}" type="CELLRANGE">
+                    <a:fld id="{32DE00E9-BC4D-EA4D-86F7-E21CE551D9D4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13082,7 +12941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22CC9541-9497-8641-8E06-0959F51DDD9C}" type="CELLRANGE">
+                    <a:fld id="{9CD2BC81-1BC3-1C4B-8EFA-CDEBE51B92DD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13115,7 +12974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29873030-C709-B748-8914-6645F3008BBC}" type="CELLRANGE">
+                    <a:fld id="{C0C1327D-AAF0-CB46-804C-499A83DCC94B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13148,7 +13007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CDD1279-BCC2-8D4A-A3B1-9008295A1F3D}" type="CELLRANGE">
+                    <a:fld id="{B5D34600-1F22-3448-9BA6-07AC36D92336}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13181,7 +13040,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1BED4B3-D91F-474C-AD3C-576B53033221}" type="CELLRANGE">
+                    <a:fld id="{A1B16CE5-673C-B34A-A3AB-99CB6EED4F5E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13214,7 +13073,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE8CF0BF-C5B7-224C-A9A3-149D88031B1E}" type="CELLRANGE">
+                    <a:fld id="{4387E8DD-E6F1-E548-BDEE-D0FFF979E7B4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13247,7 +13106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C32FCBCC-A06F-ED47-8FF1-F91E170AA396}" type="CELLRANGE">
+                    <a:fld id="{C9C84336-7C3B-564E-B48B-2AB7769DFE5C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13280,7 +13139,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAE3DBEB-BF75-FC4C-AD69-E5747B3E2E2A}" type="CELLRANGE">
+                    <a:fld id="{2E31C823-886F-F54F-89D2-98495C1E534B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13313,7 +13172,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A655A655-1655-0E4D-A392-A48B9EEA2162}" type="CELLRANGE">
+                    <a:fld id="{DE0AF509-F033-024E-A4E2-30CAF6345B45}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13346,7 +13205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBFF380C-F63C-854E-86BB-33C2B5626278}" type="CELLRANGE">
+                    <a:fld id="{15F7B7FD-F0CD-BC4F-81AA-BDE128E09F10}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13379,7 +13238,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A7ACFA6-52FC-0643-B2D0-914E670BA95D}" type="CELLRANGE">
+                    <a:fld id="{B1FF2AAD-CD7D-624B-9191-5F3DF346BFAB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13412,7 +13271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F823962-C949-B143-9E13-91E067B6FC67}" type="CELLRANGE">
+                    <a:fld id="{797194E3-5C87-1944-A27F-DEBDBCCACD8B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13445,7 +13304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B04198C-A81C-B446-8298-9DBE21C0DB40}" type="CELLRANGE">
+                    <a:fld id="{9B9A02F1-F642-FF4D-81AE-ED75D4C7DBE7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13478,7 +13337,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC4B1745-375A-D54F-B12D-93A34B7B83F5}" type="CELLRANGE">
+                    <a:fld id="{9D529017-8BE9-5247-ABC1-A77399FFD1B6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13511,7 +13370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC21753F-3255-2B49-9A50-DB190DE092A8}" type="CELLRANGE">
+                    <a:fld id="{E45F5702-4C18-FE44-B5DD-ABB24E8040FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13544,7 +13403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0542CE6E-6FD5-0D42-AC1E-DB4F21D14603}" type="CELLRANGE">
+                    <a:fld id="{2292F711-2811-9C4B-8D64-726FB42C8E7E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13577,7 +13436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD737566-76C4-624B-9614-D55E4D3BF973}" type="CELLRANGE">
+                    <a:fld id="{EE13DAFE-22AB-954F-BAF9-A435A34BBD7F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13610,7 +13469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C226648-B7E9-C347-92EC-5BD89A31F492}" type="CELLRANGE">
+                    <a:fld id="{65976132-F00D-EC4D-97A9-5FFC87A2B692}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13643,7 +13502,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5AAB278-8B44-FB4C-AC4E-1FEFFF2EFE66}" type="CELLRANGE">
+                    <a:fld id="{AC687B52-B632-554F-80D8-7686BEF71596}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13676,7 +13535,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD91CCCA-6117-CF4C-ABE7-81BBBDB3F958}" type="CELLRANGE">
+                    <a:fld id="{B223D205-59C8-0C44-85AA-5766D2E18AF6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13709,7 +13568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23235455-E02D-CA4E-860A-C91D27CAD117}" type="CELLRANGE">
+                    <a:fld id="{EB1E8C89-B350-554C-A44E-4A8E27086744}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13742,7 +13601,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E9105CF-63E2-DA43-9A5E-AE7A59514EA3}" type="CELLRANGE">
+                    <a:fld id="{9BA77C7D-9130-6446-BAF0-BFFA10C615DB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13775,7 +13634,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08F8288C-C992-4348-B399-32254EF285A8}" type="CELLRANGE">
+                    <a:fld id="{7537B783-0F77-3749-9CAF-4C49EE1FCB37}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13808,7 +13667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB90B282-9E92-B44E-B9FB-7F2E1CBFD16F}" type="CELLRANGE">
+                    <a:fld id="{2913EB78-876F-9B40-B31A-99E1012AC0BA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13841,7 +13700,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4174405C-5F76-A94A-8A02-3B2385AF261D}" type="CELLRANGE">
+                    <a:fld id="{2655A36F-2C37-2A4E-9D35-AEC2F499CABA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13874,7 +13733,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F79CD260-82CE-5A43-9B07-77AA23CD020F}" type="CELLRANGE">
+                    <a:fld id="{377C4748-7D46-2440-993B-5B6705559E89}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13907,7 +13766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{220FA6D6-99DA-B545-865D-AF5F7E750978}" type="CELLRANGE">
+                    <a:fld id="{76E44B17-2244-8347-A084-915F5D35694B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13940,7 +13799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD00CCE3-5C5E-5D43-92B9-337950E1C644}" type="CELLRANGE">
+                    <a:fld id="{22950290-2D85-7E4A-B972-01CB696C6B90}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13973,7 +13832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD4CD6EE-C57B-9C4C-AC36-1BEEFE6D9991}" type="CELLRANGE">
+                    <a:fld id="{7D17262D-883E-954B-B1B6-C1353BD888DF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14006,7 +13865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFACF625-7076-874F-9BFF-5AC3E3AE676E}" type="CELLRANGE">
+                    <a:fld id="{93B22B20-167E-6443-960E-5FA079FCFF62}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14039,7 +13898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A75D95C0-2E71-7746-AEED-0F44DDA5B3F1}" type="CELLRANGE">
+                    <a:fld id="{C0F3E88A-289C-2340-90FE-AF5D861EB7F6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14072,7 +13931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{531C3C1A-3AFD-874A-A1F2-7C919F69C8F1}" type="CELLRANGE">
+                    <a:fld id="{BAE47B88-5B9D-0640-938F-5B1058D18783}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14105,7 +13964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9C8C716-0974-0F41-9937-71F91FA6EAF4}" type="CELLRANGE">
+                    <a:fld id="{AB98A391-3F0D-D745-A5A5-FBF55C4BA74C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14138,7 +13997,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3012855-EC2D-2A49-986C-D48A2D9726A7}" type="CELLRANGE">
+                    <a:fld id="{34DFADA5-C9B6-FC47-9D13-B1E74A7328EA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14171,7 +14030,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D26FF3FB-CD2A-AB49-8226-6462AF74D8C6}" type="CELLRANGE">
+                    <a:fld id="{1536F8EF-DD63-624F-91AA-F98BC2CCCA06}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14204,7 +14063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BBD1F6E-168F-4243-B69E-C31359A4A9A9}" type="CELLRANGE">
+                    <a:fld id="{B15B325B-68E4-A442-B434-FCD39D2D2716}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14237,7 +14096,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8056F5F8-6482-F64B-9807-7DAAE9DD1AE3}" type="CELLRANGE">
+                    <a:fld id="{C4B0A380-CCE8-EB45-8A10-ACD3ADB5355D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14270,7 +14129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9F11E01-B36A-ED4F-B96F-DCE8E3C5C195}" type="CELLRANGE">
+                    <a:fld id="{DA541FA6-197B-3E41-972A-61BB7C3F79CE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14303,7 +14162,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47D0588B-DB3C-364B-BC0E-FC7AE50ED7C8}" type="CELLRANGE">
+                    <a:fld id="{5EA9563D-8FE7-844C-BCF1-FD682BA8FC77}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14336,7 +14195,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F942D46-0520-914F-9C80-BE62398A0AEE}" type="CELLRANGE">
+                    <a:fld id="{051FAD65-1FB1-4B4B-BCB2-1C67DBD5DEF6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14369,7 +14228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40164FCB-43A0-FD4D-9F1E-34810CFF2789}" type="CELLRANGE">
+                    <a:fld id="{8231BAED-7B40-4041-B291-202EA3BE656B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14402,7 +14261,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62095201-FC1F-7346-BD9A-71D00DC7AF91}" type="CELLRANGE">
+                    <a:fld id="{00F04A0A-9CF9-9642-BA75-9FA2541B51EE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14435,7 +14294,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DD2126C-41ED-674C-9615-278F000AF009}" type="CELLRANGE">
+                    <a:fld id="{70C30B0A-68D2-B442-A119-324CD7F31B6D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14468,7 +14327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{005AC20A-77EA-524B-8F3E-219A657C19A0}" type="CELLRANGE">
+                    <a:fld id="{43B84547-1CE8-B741-8ABA-40BE9C765ED7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14501,7 +14360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDAE46F1-E21E-E147-94C7-4211DF471500}" type="CELLRANGE">
+                    <a:fld id="{E4DD8E4B-633F-3F47-88B8-270758AA904C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14534,7 +14393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70BA7D28-1B41-0344-9C46-A10EE56E168C}" type="CELLRANGE">
+                    <a:fld id="{2967F7EE-2747-B143-A0FC-0B5329651B92}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14567,7 +14426,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A5BF7AB-17CE-E140-BC9F-A03173B9A120}" type="CELLRANGE">
+                    <a:fld id="{F6E26CC4-5202-B849-9AB1-31B7090EAFD4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14600,7 +14459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19560BD1-3494-9C40-8F48-3B56E79FF629}" type="CELLRANGE">
+                    <a:fld id="{A2AF37C1-0626-7845-BB96-CDB444F28ACF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14633,7 +14492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF5786FB-4639-3740-86DB-DD09BE5BE79C}" type="CELLRANGE">
+                    <a:fld id="{5668C4C0-978C-D947-B8F2-E8776ED471B2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14666,7 +14525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB05083E-D9AD-C44F-9630-4AF0F0A2A280}" type="CELLRANGE">
+                    <a:fld id="{4539189C-0F4E-4C41-967C-D14E67FD2E0F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14699,7 +14558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11730657-79FD-CA40-AD78-CACEFA3E1040}" type="CELLRANGE">
+                    <a:fld id="{CBF832EE-5B6A-F54F-B84C-F106C94F1541}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14732,7 +14591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{495CB112-8CE5-B344-A2E2-ACC2AA39E8E8}" type="CELLRANGE">
+                    <a:fld id="{A4A5CF9D-3DBD-4046-A38D-3DBB190534CF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14765,7 +14624,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F279E88-1B48-9746-864A-780E7B009D36}" type="CELLRANGE">
+                    <a:fld id="{39D3D92A-8F26-4447-96FF-7FC983229F6F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14798,7 +14657,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{232EB5C6-9E85-2E47-92B7-6C265B6779E3}" type="CELLRANGE">
+                    <a:fld id="{5D19BEE3-04A0-C34F-80C0-23CB96389629}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14831,7 +14690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24B66C0E-F59E-FF48-B99E-98755D1E1183}" type="CELLRANGE">
+                    <a:fld id="{93124AA7-2515-3142-825F-AC5EA71360E8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14864,7 +14723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB929465-378A-1047-831B-36B286BFAF8D}" type="CELLRANGE">
+                    <a:fld id="{0778D4B9-B9B3-A245-9A42-557AECD20C1F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14897,7 +14756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{749C9385-6C50-4545-A228-EE79AFC74BD7}" type="CELLRANGE">
+                    <a:fld id="{425F364D-F9A2-D649-8E77-5B68DC74F249}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14930,7 +14789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C10C03E-A1CB-8F45-B0B5-B98778E95B56}" type="CELLRANGE">
+                    <a:fld id="{F1E22957-7B16-2443-B879-F5B131E55326}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14963,7 +14822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC7FA494-2492-6044-9CA5-E9A226B0F088}" type="CELLRANGE">
+                    <a:fld id="{76AF44DB-DE19-6C49-841B-78A39A320638}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14996,7 +14855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82EB8907-7835-D243-A92A-C0D5F9779835}" type="CELLRANGE">
+                    <a:fld id="{38814680-EF7C-4C43-BAC0-DE33E67909D2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16003,7 +15862,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEF780DD-62DB-3C42-8B11-8C264601BCF8}" type="CELLRANGE">
+                    <a:fld id="{252DA042-0EEA-C64F-B6D8-0187EB9EEB18}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16036,7 +15895,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C8823D4-650E-4644-9FDD-254124896CBA}" type="CELLRANGE">
+                    <a:fld id="{F3E86E3D-6911-3143-89B7-36D29F335515}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16069,7 +15928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA95F673-7586-4A4B-9AFE-443734913486}" type="CELLRANGE">
+                    <a:fld id="{AFD5A4E0-C220-CD40-AFA9-E57E49FDE16A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16102,7 +15961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D8664AF-8562-2649-843A-0B1A883E1200}" type="CELLRANGE">
+                    <a:fld id="{315E69D5-D6CF-4E48-8B24-E488802EFB7B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16135,7 +15994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D1D5B87-252A-B041-9664-685AB5065017}" type="CELLRANGE">
+                    <a:fld id="{59E12FCC-C0B5-3842-BB26-D0B9551D4005}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16168,7 +16027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1B8B081-39D8-C846-B87A-12AA80AE6772}" type="CELLRANGE">
+                    <a:fld id="{A9E0F4C7-4022-A24A-9FFD-7DE567EC5E48}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16201,7 +16060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD8E0740-60ED-ED4B-93BE-AE72127DE0EE}" type="CELLRANGE">
+                    <a:fld id="{D588B642-1C88-0843-8727-DF5094CB5E4E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16234,7 +16093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{187DF3FF-7CC3-5B4F-BD57-508B4BD8219A}" type="CELLRANGE">
+                    <a:fld id="{2CF1A5FD-1BB2-204F-8BD4-4C167A7B44D5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16267,7 +16126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{374B6212-03B1-094F-92B8-4B3C3B706559}" type="CELLRANGE">
+                    <a:fld id="{0B7C2866-B381-7E40-94A8-5720982CA037}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16300,7 +16159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CC229FB-AC64-B142-893B-373798A9134B}" type="CELLRANGE">
+                    <a:fld id="{6780C86C-5E62-024C-9C4A-397382459C2B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16333,7 +16192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{289BAB82-B33D-F249-A4F3-5CD9139FC35A}" type="CELLRANGE">
+                    <a:fld id="{044B422B-5D63-A547-A48A-95B2A92B11FA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16366,7 +16225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6DCEC28-0647-A548-882F-F065C9A01FB9}" type="CELLRANGE">
+                    <a:fld id="{BFC4135E-205E-714A-A3CD-5D8304517827}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16399,7 +16258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{862BA102-DB7E-4D49-A5A9-6ABBEA5140D6}" type="CELLRANGE">
+                    <a:fld id="{98AA670F-AD4F-1547-A5CB-64D18C193EC6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16432,7 +16291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAD53782-A8FD-D049-A138-244B7610F783}" type="CELLRANGE">
+                    <a:fld id="{FD8E4280-C6A9-1B4D-8379-3FB82893C819}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16465,7 +16324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29CAD8A8-7FCC-5F4C-9DC3-0E8C6172623D}" type="CELLRANGE">
+                    <a:fld id="{A72BAB44-F0BE-FA41-8F8D-FE9659889083}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16498,7 +16357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32C8402B-A723-AA44-A223-9E4803A04F29}" type="CELLRANGE">
+                    <a:fld id="{EAF39937-165A-B740-A046-CD1EECCD3051}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16531,7 +16390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7615B3BB-23C0-384C-A01B-0B3BF2533B99}" type="CELLRANGE">
+                    <a:fld id="{C7C8D45B-0813-004A-B923-7F77785B26E2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16564,7 +16423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79910D85-09C2-0149-A3B6-0B3DF278B3C3}" type="CELLRANGE">
+                    <a:fld id="{67155F28-D721-0843-9200-7F7D9506C9FB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16597,7 +16456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA50071D-66F3-AB49-A55D-E172DBD9DE2D}" type="CELLRANGE">
+                    <a:fld id="{44236840-92B2-6149-B0C8-7855E914C392}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16630,7 +16489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{891DE284-8FF0-0949-82CF-C4083BD80437}" type="CELLRANGE">
+                    <a:fld id="{CBA58BC0-B5B5-3642-9962-EF0884AF5E75}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16663,7 +16522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF180FB0-E5BB-B24B-9450-A42E1CE956F1}" type="CELLRANGE">
+                    <a:fld id="{B6C2568D-0C89-614D-A03A-701539B1B3CD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16696,7 +16555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2863A4C5-0EE0-8C41-9449-FEB108574F69}" type="CELLRANGE">
+                    <a:fld id="{64A17128-053E-9546-BD03-717814A0AEA6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16729,7 +16588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{998209D9-4649-CC4F-BD14-B1176936EE99}" type="CELLRANGE">
+                    <a:fld id="{4BEC1B76-E839-244A-A313-F3664306F1A4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16762,7 +16621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{443AEDC2-3FDA-244F-8724-06D907CF1C5A}" type="CELLRANGE">
+                    <a:fld id="{FF70034F-5713-B044-B29D-0EFF759E729A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16795,7 +16654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D3019E7-2E90-404B-888D-55CECD660250}" type="CELLRANGE">
+                    <a:fld id="{BD8865C9-E6FC-3542-B70F-EB2125151E64}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16828,7 +16687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F1D70FC-70A6-D444-BC6A-DEDC0072B032}" type="CELLRANGE">
+                    <a:fld id="{D9EFD626-0CF4-FD4A-A430-F781D88F00E5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16861,7 +16720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25A4C9CC-CACF-7242-A532-9F70EB551105}" type="CELLRANGE">
+                    <a:fld id="{C8347A66-91C9-AA4A-B26E-FCF20F7BCA7C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16894,7 +16753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48912F2E-B5A3-784F-AB36-70BDA5968B6C}" type="CELLRANGE">
+                    <a:fld id="{BD0ABCAF-CE60-124D-A7D3-C08C7F42428C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16927,7 +16786,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7B0E617-4438-0446-B208-44CE1CB541E3}" type="CELLRANGE">
+                    <a:fld id="{6649D930-43BB-2842-AC74-FF0C6349E3AE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16960,7 +16819,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31B7860A-419D-284D-A1AB-9480FC9B0BAA}" type="CELLRANGE">
+                    <a:fld id="{7A259CED-8FE2-B246-B452-8102A92DA2CE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16993,7 +16852,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E88F6DAC-EA56-044A-A8EC-8C320A05EE5B}" type="CELLRANGE">
+                    <a:fld id="{A26DFE9F-E1F2-8943-8AAD-927A0142E6E3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17026,7 +16885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD2D3049-2189-0D44-8510-DE26CF1FD25F}" type="CELLRANGE">
+                    <a:fld id="{25BC3C48-5260-154B-903A-50584AF2005F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17059,7 +16918,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{263DF78E-5F61-9942-A1D3-FFECE9E5ACCE}" type="CELLRANGE">
+                    <a:fld id="{99119A8F-89EF-5B4F-B7AC-BE159EAAEE87}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17092,7 +16951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{611E5BCF-7561-3A47-8C3A-1ECC471049A2}" type="CELLRANGE">
+                    <a:fld id="{D3DC8CB7-4FC0-4D4B-A921-7044E6BE3AEB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17125,7 +16984,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDB13E6F-DF2D-A34A-AED5-C9F1EDB1CF60}" type="CELLRANGE">
+                    <a:fld id="{9FEF4337-9590-EC43-9705-96E2254B9AB5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17158,7 +17017,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7D82A63-CC86-AB42-BD7C-929D3B7A8890}" type="CELLRANGE">
+                    <a:fld id="{D31AEBDE-FB19-3641-89A5-DD5D10075FFF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17191,7 +17050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F2CC7CB-CC96-CD42-9E84-322F54F7A429}" type="CELLRANGE">
+                    <a:fld id="{0798B8E4-76AA-9C42-A0C6-7CFD1BE62F0C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17224,7 +17083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FBFA7F3-ED88-A64E-A973-16A11BAAE2C0}" type="CELLRANGE">
+                    <a:fld id="{35F3DF50-284C-9346-A197-32BAD92F30C8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17257,7 +17116,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75AD8B1F-A7A4-224C-B805-60816B0E0544}" type="CELLRANGE">
+                    <a:fld id="{6B809512-2F5A-4741-9121-DEC0CC0A432E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17290,7 +17149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D681147C-634E-AF4B-860F-942B2B059BCB}" type="CELLRANGE">
+                    <a:fld id="{F82A2E46-CC04-3D4E-8533-6D257ED0D62C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17323,7 +17182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{515BB6CC-27A0-CB46-8ACA-EFE1CFEA1DDA}" type="CELLRANGE">
+                    <a:fld id="{A8971502-CAA4-554B-8CFE-A2DBFF8A5496}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17356,7 +17215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD38C26E-CFF5-5748-8CA0-4AB8E2EFEDB2}" type="CELLRANGE">
+                    <a:fld id="{DA42A018-7E7E-6144-A247-597866BDF964}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17389,7 +17248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF51EF75-DEA2-AD48-8AA3-544F29881FA0}" type="CELLRANGE">
+                    <a:fld id="{9FFEE1C5-400D-BF4F-A2BB-9C5D29F89635}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17422,7 +17281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66B64249-DFD0-8547-B4AC-90D098986EAB}" type="CELLRANGE">
+                    <a:fld id="{7E103434-A357-6E46-88A9-D7E8CC68C62F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17455,7 +17314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AD6CC2B-0D9C-F842-9CD8-E9D299D8B14F}" type="CELLRANGE">
+                    <a:fld id="{B77E37EF-7B52-1947-81CB-724975B65860}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17488,7 +17347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F55FD8A8-0237-2744-973F-68C32E053844}" type="CELLRANGE">
+                    <a:fld id="{39112BD5-038A-D449-9F2A-E05707FA4976}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17521,7 +17380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09F2AD09-69F3-174B-AF10-B85C657FBF05}" type="CELLRANGE">
+                    <a:fld id="{5DA8816C-E981-D24E-8F2C-18CA710B081A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17554,7 +17413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38BF3079-833D-2B46-B76C-EF0191C06FB8}" type="CELLRANGE">
+                    <a:fld id="{A0B41FA5-E683-9E45-B1B6-63E3A998EC3E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17587,7 +17446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B032D1A0-4A3E-4E48-85E9-0C323B4EE167}" type="CELLRANGE">
+                    <a:fld id="{1839479D-508A-5E43-8331-2C0A140295A5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17620,7 +17479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5283BCF1-B45E-9242-94C3-B579B95AA32F}" type="CELLRANGE">
+                    <a:fld id="{B06D49C0-3292-6845-B8CE-B1F68906FF96}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17653,7 +17512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3BEB16E-0431-6C4E-B148-DDD6B754F70F}" type="CELLRANGE">
+                    <a:fld id="{AA405ED5-A0D2-A845-8D59-877397303719}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17686,7 +17545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53F0BF63-D1C7-E04E-9CCD-44B7DEEBF8E3}" type="CELLRANGE">
+                    <a:fld id="{64A9A4A2-1AF0-7B40-BF39-A260E379FF09}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17719,7 +17578,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF178264-5417-7F4A-B545-8D85AB98592F}" type="CELLRANGE">
+                    <a:fld id="{F8B3EE14-E32C-C643-BD78-33194D5B10A8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17752,7 +17611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1FD0EA3-528E-9045-9C1B-487BF1B86EC6}" type="CELLRANGE">
+                    <a:fld id="{52C2A093-CF91-404E-B91C-121965D51333}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17785,7 +17644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4A5697D-96A8-244F-A7F3-F95A871587E3}" type="CELLRANGE">
+                    <a:fld id="{E996961A-1347-2C4C-B3DF-BC6EE3BB6A3F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17818,7 +17677,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42ED223C-8380-094C-A943-AACE8AC33E22}" type="CELLRANGE">
+                    <a:fld id="{4E5D9E18-CE07-BB4B-BEC7-4F30809A8820}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17851,7 +17710,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0FF2D52-59AC-824C-B287-86AA45955C6A}" type="CELLRANGE">
+                    <a:fld id="{468B869F-D4D6-374E-AFC7-512545576A7D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17884,7 +17743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65F17C50-DFEB-664F-BE73-DF0A75C6BC7C}" type="CELLRANGE">
+                    <a:fld id="{CC5EFF60-7106-2640-A37B-EB3BCD35B53A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17917,7 +17776,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{556C72C6-979A-A345-BF41-238126175181}" type="CELLRANGE">
+                    <a:fld id="{5DE2270D-6F0C-6F42-A0A5-D9A8BCD21593}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17950,7 +17809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C66AEB0-17FC-0F45-B84F-697F7A9EA105}" type="CELLRANGE">
+                    <a:fld id="{7CC50C4C-D773-C749-A791-FA35D564F063}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17983,7 +17842,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D75BD17F-6359-6446-BADE-7612004DB8B9}" type="CELLRANGE">
+                    <a:fld id="{8AEB9E2D-95CC-9B4F-94B5-E0D602963C13}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18968,7 +18827,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD4536C4-EBCF-E745-9034-14C040CA4D8D}" type="CELLRANGE">
+                    <a:fld id="{D4BF8A76-6952-ED4F-A4D2-68418064A8BF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19001,7 +18860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13707CC8-8F4A-5F46-950D-95B11EA9D908}" type="CELLRANGE">
+                    <a:fld id="{C121D75B-3CFE-0044-A660-BEB757BA3D8E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19034,7 +18893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF071AD0-89B7-884A-A693-D30C8EB4C448}" type="CELLRANGE">
+                    <a:fld id="{5573DD70-32C7-784B-9667-84E326DB339B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19067,7 +18926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{392E1781-5D22-A644-BC19-E88695B586C8}" type="CELLRANGE">
+                    <a:fld id="{AFF6E373-D6CC-8844-A446-2F98BB8AA33E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19100,7 +18959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF609506-AB32-234B-9F13-B90A749734BC}" type="CELLRANGE">
+                    <a:fld id="{3F919766-B993-2E4E-939C-A4D57E44E75E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19133,7 +18992,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7032207A-8B8D-104E-9230-C0986CE984C7}" type="CELLRANGE">
+                    <a:fld id="{399808A5-5AA7-B846-BC57-08FBB1A02626}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19166,7 +19025,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8AF0B0D-A6B4-8D4C-94E5-F10A874D03E8}" type="CELLRANGE">
+                    <a:fld id="{0975A2DD-B3FD-5A4A-B598-7DCE11CEC347}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19199,7 +19058,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64D4A799-665B-9D46-B617-C30869E3BCCC}" type="CELLRANGE">
+                    <a:fld id="{4EB31919-0070-3245-9B72-D19081B33940}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19232,7 +19091,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33EA4E5F-C1FB-CD41-8E42-6E3D312370DD}" type="CELLRANGE">
+                    <a:fld id="{3D01AF08-F674-BD43-9C21-1051068D1FB0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19265,7 +19124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A192E6C6-6D1C-6E48-9F1B-6334739ACAED}" type="CELLRANGE">
+                    <a:fld id="{7F1E8942-BC3B-5845-AE8B-1BC7AF339DB9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19298,7 +19157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CC9621A-DD47-0B45-B184-9EBA8D56BC71}" type="CELLRANGE">
+                    <a:fld id="{1DDD8D46-3EA4-D647-A8F0-2B3A6A8C4C63}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19331,7 +19190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1500BDCE-A0FA-AD4A-8A37-EA0A5194A924}" type="CELLRANGE">
+                    <a:fld id="{6B19808D-FDC8-CD4D-9096-B66D1F04DE0E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19364,7 +19223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C637087-E2AA-A94B-A9AF-C8536A904C79}" type="CELLRANGE">
+                    <a:fld id="{E53F7EAB-595A-CF45-9F8D-1274F87C8BAE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19397,7 +19256,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB4937E0-49E8-BC4E-A4FE-053C99B317A0}" type="CELLRANGE">
+                    <a:fld id="{1FC7FCB2-E3FE-9047-A2BD-7582A95B5D01}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19430,7 +19289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B597414A-7C5E-BA45-98FC-0E4FEC2F8EFB}" type="CELLRANGE">
+                    <a:fld id="{B72B41FE-57FD-9A42-A8B1-F9E537DA6FC2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19463,7 +19322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D0217C1-9750-CD46-B880-7301367489F0}" type="CELLRANGE">
+                    <a:fld id="{B26881BD-6006-2047-B90B-AF933706E784}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19496,7 +19355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5F09B6B-B564-F241-97AC-E42AE269F904}" type="CELLRANGE">
+                    <a:fld id="{41FAF8FA-769C-7F49-B041-F15379218AE9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19529,7 +19388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389D342F-968E-8F4D-B85B-DCA8AE369014}" type="CELLRANGE">
+                    <a:fld id="{BD502E3A-CD4B-F04D-BD05-B0C09ADCCF8B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19562,7 +19421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80AB4AB0-664D-9F49-9525-36AF58BE4244}" type="CELLRANGE">
+                    <a:fld id="{76C28486-3C40-D345-8BD5-63CE29C115E8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19595,7 +19454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26BAABDC-1D7B-AE47-929B-901C11276A73}" type="CELLRANGE">
+                    <a:fld id="{AD08FA31-B1B5-4A4A-AA77-6940A4A3EC28}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19628,7 +19487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4C1780F-CCBC-9448-A406-1073B12D2A33}" type="CELLRANGE">
+                    <a:fld id="{AADB7024-353E-F64F-800A-B3CB891C3BF5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19661,7 +19520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85A50ED8-75E4-F34D-BEA7-817CC1E622B7}" type="CELLRANGE">
+                    <a:fld id="{108D9F40-9B07-A64B-8903-D4DADCBAA286}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19694,7 +19553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{980647E5-81AE-A849-BB0A-B950290ED087}" type="CELLRANGE">
+                    <a:fld id="{871EA5AA-541D-844D-BEE5-B6575D834935}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19727,7 +19586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36C4030F-67D2-F74F-89E6-B78A996B741B}" type="CELLRANGE">
+                    <a:fld id="{29321414-FFB2-4D41-A5EA-C40213B8A445}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19760,7 +19619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5676A5E-D537-AE47-9D5D-10EEB277281A}" type="CELLRANGE">
+                    <a:fld id="{A6D08340-3A74-3446-94A0-8DF690BFEDC3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19793,7 +19652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70B4FB54-0EA9-E449-A16D-FB0592E30E88}" type="CELLRANGE">
+                    <a:fld id="{FA6BE134-190F-7641-BC1D-11AB4FCF7944}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19826,7 +19685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FE6B70E-8F82-0346-8648-CA97B214B324}" type="CELLRANGE">
+                    <a:fld id="{DA966284-15E3-894A-947A-DB25D07AD944}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19859,7 +19718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22E4ADE0-D681-9347-AA47-E1DDB6A4DA52}" type="CELLRANGE">
+                    <a:fld id="{C6C77E34-F797-AD44-9D52-BA45B8AA168F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19892,7 +19751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDA9D9AA-77E4-ED44-9F4E-8BB003563D57}" type="CELLRANGE">
+                    <a:fld id="{9D1253B8-3075-814B-BE4E-84B3C179475C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19925,7 +19784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4A11463-6A63-8A4C-BE4C-681E83E4196D}" type="CELLRANGE">
+                    <a:fld id="{0A0B6718-116D-014D-8DEB-26779A20BF5B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19958,7 +19817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B85388C8-9D53-A34D-BEF3-02F232B682BA}" type="CELLRANGE">
+                    <a:fld id="{63A805B2-5237-D249-B7DC-6C20BE900512}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19991,7 +19850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0CAB712C-9129-C34D-B935-C4A2AE552021}" type="CELLRANGE">
+                    <a:fld id="{42084BE1-CE5A-3940-8695-40A5F4B88430}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20024,7 +19883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EC99C63-0261-C343-A45C-95942B62FA1D}" type="CELLRANGE">
+                    <a:fld id="{41412C87-BFEE-F64E-9283-2A415F3EC88D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20057,7 +19916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C76D8B06-BCA7-014F-8F58-A70BEF5E7273}" type="CELLRANGE">
+                    <a:fld id="{51714DBB-0AC0-8448-8DAD-A77CB86DF0B6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20090,7 +19949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45C025E1-5240-B943-997C-05F13AEB7660}" type="CELLRANGE">
+                    <a:fld id="{2728973D-B147-EC4C-9026-C5709914AF92}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20123,7 +19982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FA41264-290D-0844-B6F3-F7F9D683CC32}" type="CELLRANGE">
+                    <a:fld id="{77B9DAB7-FE74-C34D-BDE9-F883BF7036CF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20156,7 +20015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2EF47E5-B064-444E-9C8B-2560B13398E7}" type="CELLRANGE">
+                    <a:fld id="{85087EBC-1DA0-A042-8E82-676068D378D2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20189,7 +20048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D76E21D-BB2F-F34D-9279-FEE5A9181518}" type="CELLRANGE">
+                    <a:fld id="{5BC9A818-3EEF-7F42-BAF3-4041BD0B6559}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20222,7 +20081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3BE3996-4EE2-AA42-93C2-B165FD641DDC}" type="CELLRANGE">
+                    <a:fld id="{988A96C0-1932-5D49-928F-E4749707FCBB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20255,7 +20114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6D06365-DD8F-264E-A99B-5DFDAC1A0E91}" type="CELLRANGE">
+                    <a:fld id="{3075E213-9B5D-4A4E-91EA-CAEE2845581B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20288,7 +20147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6C6C218-6521-B14E-B670-036DA20791A1}" type="CELLRANGE">
+                    <a:fld id="{141E5E81-3730-FE4E-974F-C454BBC3390D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20321,7 +20180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{672FCEEF-EDE5-1349-893E-FCC0EEF2F2BA}" type="CELLRANGE">
+                    <a:fld id="{CC7A62FF-E93B-9E4C-90F3-299263D81D22}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20354,7 +20213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D761EB5F-16D0-D145-A747-CFFCFB1A3389}" type="CELLRANGE">
+                    <a:fld id="{25A26A3D-37D9-C04E-B690-613CA4B34E43}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20387,7 +20246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11721A13-1006-F54D-99C2-FB163775E9BB}" type="CELLRANGE">
+                    <a:fld id="{FEF99CB9-86A2-644C-AA0A-93BEA189B36B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20420,7 +20279,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8DC8A2D-ED4D-5D45-967D-DA66679ADDA6}" type="CELLRANGE">
+                    <a:fld id="{AA3F1795-AE58-A44A-8820-47E503991CD9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20453,7 +20312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51CA5888-A884-B644-93D5-DFC281CE47D7}" type="CELLRANGE">
+                    <a:fld id="{799E21F7-866E-974E-A198-FDC2F96C44FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20486,7 +20345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0953A96-970B-2544-9749-EB81DB020402}" type="CELLRANGE">
+                    <a:fld id="{F64222F6-3705-7246-AE8C-16712055CEFA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20519,7 +20378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52E7DCCB-D399-AB46-8B6E-FB90DDDCAE54}" type="CELLRANGE">
+                    <a:fld id="{2C0D88D0-EA49-764B-B397-ADB01AB65A33}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20552,7 +20411,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61BE70E3-B83E-FC40-B247-C8C667F00CA2}" type="CELLRANGE">
+                    <a:fld id="{A5795D67-E4BD-A449-BC3E-4B6BBA40B384}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20585,7 +20444,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDFA7D14-4A1B-1443-BD3F-4006878B929F}" type="CELLRANGE">
+                    <a:fld id="{AC0F56E3-16EF-FB4E-92FC-BF76F8FFA784}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20618,7 +20477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3607C38D-7A7F-E246-8311-6130AFF4BFA0}" type="CELLRANGE">
+                    <a:fld id="{08C1975C-91FE-B74B-AD6E-50C62A7FEEDA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20651,7 +20510,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72AC228-82D0-F24C-B451-7DF1C3DF9678}" type="CELLRANGE">
+                    <a:fld id="{694D516F-770A-424E-B571-52DA5976925A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20684,7 +20543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38DD7D9B-EC91-944F-94BE-2449AB084905}" type="CELLRANGE">
+                    <a:fld id="{C12A71CC-D7FF-B146-B8DB-51B3A1724D09}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20717,7 +20576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03C7D28C-4EA3-6A43-AF89-5AA8DEC661BA}" type="CELLRANGE">
+                    <a:fld id="{7700203F-BA89-C849-829F-E53743955746}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20750,7 +20609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68CE9283-D900-0B4C-A2E8-8AC04042CF02}" type="CELLRANGE">
+                    <a:fld id="{A1DA60CC-C713-EE44-9C6F-D2C56FC5D78B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20783,7 +20642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AC20D02-CC47-F84A-B7C4-DBCCF927C205}" type="CELLRANGE">
+                    <a:fld id="{04A70276-93F5-B848-9F21-B18D54C16E5F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20816,7 +20675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15FFE72F-E8C9-8F4A-8F2C-410B8734F740}" type="CELLRANGE">
+                    <a:fld id="{ADFA3F65-44F7-344E-8422-48C2D159DC72}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20849,7 +20708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F1523C9-8B58-AD49-BDCE-3B732A9A0D90}" type="CELLRANGE">
+                    <a:fld id="{E18BED7F-6DCD-0649-90D7-AED85489722B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20882,7 +20741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{448072DB-75E0-F943-9E62-59AA4681713D}" type="CELLRANGE">
+                    <a:fld id="{8670B94B-5341-1B4A-809C-CDB3988AD4B1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20915,7 +20774,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21F4A119-BEFC-794F-9ABC-47FB74CE6497}" type="CELLRANGE">
+                    <a:fld id="{344C64E3-18E4-FB48-96E8-9E52C32816F9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20948,7 +20807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A0F5CF2-70BC-2A42-BEAB-E134FFE9057C}" type="CELLRANGE">
+                    <a:fld id="{D14D3B3A-2A5A-6D4B-A9BC-B63C4D3866EE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25753,7 +25612,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D57635-83DE-E882-E331-0AB263C18ED0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -28621,7 +28480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4053C8FF-5711-3B4F-9AD2-AFA8CF4BACB3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -28631,6 +28490,190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C05AE-70A8-2B42-9F1B-DB98428C6E57}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C2">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="D2">
+        <f>B2-0.122</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="E2">
+        <f>B2-0.187</f>
+        <v>4.5000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.217</v>
+      </c>
+      <c r="C3">
+        <v>0.11</v>
+      </c>
+      <c r="D3">
+        <f>B3-0.0406</f>
+        <v>0.1764</v>
+      </c>
+      <c r="E3">
+        <f>B3-0.0757</f>
+        <v>0.14129999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C4">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="D4">
+        <f>B4-0.0521</f>
+        <v>0.23789999999999997</v>
+      </c>
+      <c r="E4">
+        <f>B4-0.109</f>
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.128</v>
+      </c>
+      <c r="C5">
+        <v>0.441</v>
+      </c>
+      <c r="D5">
+        <f>B5-0.00959</f>
+        <v>0.11841</v>
+      </c>
+      <c r="E5">
+        <f>B5-0.0516</f>
+        <v>7.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C6">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="D6">
+        <f>B6-0.0518</f>
+        <v>0.3952</v>
+      </c>
+      <c r="E6">
+        <f>B6-0.134</f>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D7">
+        <f>B7-0.00156</f>
+        <v>0.47143999999999997</v>
+      </c>
+      <c r="E7">
+        <f>B7-0.0272</f>
+        <v>0.44579999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8">
+        <f>B8-0.0181</f>
+        <v>0.2109</v>
+      </c>
+      <c r="E8">
+        <f>B8-0.065</f>
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C9">
+        <v>5.96E-2</v>
+      </c>
+      <c r="D9">
+        <f>B9-0.0561</f>
+        <v>0.34790000000000004</v>
+      </c>
+      <c r="E9">
+        <f>B9-0.112</f>
+        <v>0.29200000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809DB9B-3FD8-5549-9FCD-267FEFC8FD9E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28643,7 +28686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F32D40-50E3-6642-8D70-05112DFB6AD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28656,7 +28699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D1D4AF-07CA-6F49-AFFE-0C0473FEE9BF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28669,7 +28712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5194872-4A7E-814B-947B-A32CCDF9E906}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28682,7 +28725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61859BC3-7413-7547-83A4-19282395964C}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/data/WVS7graphs.xlsx
+++ b/data/WVS7graphs.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julieta/Desktop/wellbeing_gdp_region/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0AC537-DCBA-6646-8951-990FFBD45394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BDEA9-F5D3-9548-8CBB-BD4EFE7BA6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="980" windowWidth="26960" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="12920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="happiness_mean" sheetId="11" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
     <sheet name="satisfaction_mean" sheetId="7" r:id="rId3"/>
     <sheet name="econometric results" sheetId="12" r:id="rId4"/>
-    <sheet name="satisfied" sheetId="6" r:id="rId5"/>
-    <sheet name="ratio" sheetId="5" r:id="rId6"/>
-    <sheet name="very_unhappy" sheetId="4" r:id="rId7"/>
-    <sheet name="happy" sheetId="3" r:id="rId8"/>
-    <sheet name="very_happy" sheetId="2" r:id="rId9"/>
+    <sheet name="dates WVS7" sheetId="13" r:id="rId5"/>
+    <sheet name="satisfied" sheetId="6" r:id="rId6"/>
+    <sheet name="ratio" sheetId="5" r:id="rId7"/>
+    <sheet name="very_unhappy" sheetId="4" r:id="rId8"/>
+    <sheet name="happy" sheetId="3" r:id="rId9"/>
+    <sheet name="very_happy" sheetId="2" r:id="rId10"/>
+    <sheet name="Hoja2" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="144">
   <si>
     <t>country_code</t>
   </si>
@@ -271,26 +273,227 @@
     <t>p-value for Y</t>
   </si>
   <si>
-    <t>r2ZG − maxYˆ {r2Yˆ }</t>
-  </si>
-  <si>
     <t>r2 ZG - r2 Y</t>
   </si>
   <si>
     <t>r2 ZG</t>
+  </si>
+  <si>
+    <t>r2ZG − maxYˆ {r2Yˆ } (actualizar)</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zeland</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Venzuela</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Zimambwe</t>
+  </si>
+  <si>
+    <t>Ireland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,8 +516,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B325541-20C3-3E4C-93C3-130EFB175FA9}" type="CELLRANGE">
+                    <a:fld id="{21739269-59DC-1C49-BF9C-49E2158F03CB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -516,7 +721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65B31F05-4887-BB49-BD96-D263483372EA}" type="CELLRANGE">
+                    <a:fld id="{69D13F61-AE3B-4C41-A53D-36C9BE615617}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -549,7 +754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{737B7752-7D93-C643-9D55-B4C3283BDA2E}" type="CELLRANGE">
+                    <a:fld id="{37600CEE-6E80-1842-B568-C1BE7CDDB118}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -582,7 +787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE6F7204-FDBD-8646-B4D8-C8A9CD755DF1}" type="CELLRANGE">
+                    <a:fld id="{6CF2E8D8-B8DB-8745-A952-670E7B63FF3A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -615,7 +820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6C3E0FF-AA1E-2B4C-A5EF-D603D6A636B7}" type="CELLRANGE">
+                    <a:fld id="{C8D4505C-2CBA-BE4E-B545-6214E80EE0E4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -648,7 +853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12AF5736-BE69-0C43-B332-C84065C75557}" type="CELLRANGE">
+                    <a:fld id="{A4EF0392-E459-4648-B83C-E563B36A2400}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -681,7 +886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E11B899-E56D-314C-AE3F-A4AE624CF302}" type="CELLRANGE">
+                    <a:fld id="{8AF560EC-37BA-884F-82E2-AA3D500B85A9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -714,7 +919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DE46D19-3B13-B447-8A60-9D58666CD1D0}" type="CELLRANGE">
+                    <a:fld id="{2CE97E9F-78A0-5842-A92B-EC699472BF87}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -747,7 +952,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{964D20BE-857F-374F-B238-714DAC75FD76}" type="CELLRANGE">
+                    <a:fld id="{486945F4-C05D-0F49-888F-AE0927076DBC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -780,7 +985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D6AC566-F4DD-6F45-B798-83F1EAB3A272}" type="CELLRANGE">
+                    <a:fld id="{B057E39D-170B-494A-AAF9-F50F970C093E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -813,7 +1018,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A198D5EF-8FC2-9444-9EE6-192BDF788F61}" type="CELLRANGE">
+                    <a:fld id="{7BC2FCCF-7CB5-5845-A704-F99104413645}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -846,7 +1051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65265FD1-6C72-1649-A6C4-6F76753B4B0B}" type="CELLRANGE">
+                    <a:fld id="{BE064B89-D248-564B-9A3E-C5031246031D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -879,7 +1084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98202207-A57E-8242-9621-032E122F003B}" type="CELLRANGE">
+                    <a:fld id="{78E806E1-CD14-D640-B100-569CA0CF2AFB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -912,7 +1117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36BC4699-72EE-1248-AC98-84D6216AF46C}" type="CELLRANGE">
+                    <a:fld id="{2E76ED87-0791-DF41-83AB-8A6C0137DCBD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -945,7 +1150,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{962CDDAF-93D4-EE4D-A4C5-B0077F60A91D}" type="CELLRANGE">
+                    <a:fld id="{E87C0271-5646-1348-A418-E0D43700EA73}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -978,7 +1183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC55F691-D3B6-6A45-8D59-0CFDD6E3DD1A}" type="CELLRANGE">
+                    <a:fld id="{FA9AE45C-052B-4B4E-9B21-32063D537D17}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1011,7 +1216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59923BA8-F201-7B47-83BC-BFD2CC923882}" type="CELLRANGE">
+                    <a:fld id="{3976E8B7-9290-4F4D-9493-8594F95C4999}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1044,7 +1249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{669E8DB6-B696-C64B-82C3-95587B358284}" type="CELLRANGE">
+                    <a:fld id="{91CEB97B-2562-1641-B6FC-D690B546DE5A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1077,7 +1282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9F53FDF-76CE-7648-8DF3-F827FE71157B}" type="CELLRANGE">
+                    <a:fld id="{76187CE7-767B-E34A-B244-2E930DB83B9A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1110,7 +1315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{861C01D3-0306-0842-90C9-8E6915A021EA}" type="CELLRANGE">
+                    <a:fld id="{EEAD97CC-D69C-8B4C-8634-346059D1E7C4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1143,7 +1348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE54DA6B-A6D1-AC4F-AC42-9232D7FE2160}" type="CELLRANGE">
+                    <a:fld id="{C0473C27-3B34-2E4D-AA4C-B15F533F7B83}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1176,7 +1381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09BB5AE7-19D0-BB4F-854E-9FF9A7C51038}" type="CELLRANGE">
+                    <a:fld id="{AFB34AD0-219B-E748-B460-EF5DEA68FCC9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1209,7 +1414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EBF15E0-1EE7-FA44-8E5B-ED94501EEFDC}" type="CELLRANGE">
+                    <a:fld id="{CEE114E0-D63D-9C43-8D45-ACF77663956F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1242,7 +1447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3FFD28E-13E0-4A49-873F-D19FA9D7D1E8}" type="CELLRANGE">
+                    <a:fld id="{3B4056CA-FEE1-2247-B030-705D246B63EB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1275,7 +1480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{306FB6FA-34A9-8247-98FF-498F3DECE318}" type="CELLRANGE">
+                    <a:fld id="{EA2E32CE-D45F-2741-A2D2-7E969BC99904}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1308,7 +1513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B08FA5D3-5372-874E-8738-2EDB18FB63FF}" type="CELLRANGE">
+                    <a:fld id="{E96C8C1C-BFCC-C042-9217-4B22153452B4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1341,7 +1546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AE7584A-1384-BA47-806F-2A348F1E377D}" type="CELLRANGE">
+                    <a:fld id="{563D6964-448E-F54F-8282-5C28A7E1C6A7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1374,7 +1579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A35DFB0-2080-A743-8F0D-5E1A55D7F925}" type="CELLRANGE">
+                    <a:fld id="{F7ADF139-36B7-9D4C-A20E-63C843D6E99D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1407,7 +1612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6CD0F50-862C-214B-9C81-7DF6C7909886}" type="CELLRANGE">
+                    <a:fld id="{636B6601-09D3-A54A-88B0-E6E57619C6F1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1440,7 +1645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A547D95-589E-574A-ACB9-87FC3F5FE441}" type="CELLRANGE">
+                    <a:fld id="{A12F3036-0D64-2E44-856F-61B5D8DCA527}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1473,7 +1678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EFDD1EC-D8FB-444C-8F9F-78E1D9E6FF3C}" type="CELLRANGE">
+                    <a:fld id="{2F23B432-619A-CE4F-8761-D1186E5F4D93}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1506,7 +1711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29350A16-4885-A84C-B022-05DBB4BE1C17}" type="CELLRANGE">
+                    <a:fld id="{C2C56A93-810F-324A-81DD-B7964938DFAF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1539,7 +1744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B6C8067-03A1-2748-82AD-74C1B588EECD}" type="CELLRANGE">
+                    <a:fld id="{3B62E9F5-2C56-5440-9609-F14C9632D642}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1572,7 +1777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92FEDD94-8DEA-BB43-AEE2-F03FC6182928}" type="CELLRANGE">
+                    <a:fld id="{471B1D3F-1BFF-3A4D-A129-698813D90960}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1605,7 +1810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6F58FEE-60F5-374D-A8D6-79C2A9A253C0}" type="CELLRANGE">
+                    <a:fld id="{DFE7ADCA-F4AA-E748-8ACD-5575D72D91D6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1638,7 +1843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55E93F3E-0816-AF48-985F-0F83056A6236}" type="CELLRANGE">
+                    <a:fld id="{AFBFA7E9-BFC2-0442-9892-0F9BD048AC1D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1671,7 +1876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D30529E-86FA-FA4B-8AB0-8DBB1FE11EAE}" type="CELLRANGE">
+                    <a:fld id="{5E4E66C4-B428-2645-B2A6-9622D7BFBE6E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1704,7 +1909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AA3CEDF-1C5A-5249-924F-516C19914B16}" type="CELLRANGE">
+                    <a:fld id="{BB2615D4-10CD-3F4D-8586-817F68CC1EB7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1737,7 +1942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F73AAA9-CC22-2343-85C7-021D926BFFEF}" type="CELLRANGE">
+                    <a:fld id="{1044600F-8418-2D44-853B-FE03D541EB25}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1770,7 +1975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A482D9AC-F287-B94E-A408-915F566465C0}" type="CELLRANGE">
+                    <a:fld id="{E0A68121-41BB-CD4D-ABBB-289C3CF4FE74}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1803,7 +2008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4E4BF46-BBA0-1941-8473-9A3F830D1139}" type="CELLRANGE">
+                    <a:fld id="{5667E058-EB02-014A-87EC-169AEE76F6EF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1836,7 +2041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0950128F-5785-DE42-8385-F690D4E204C2}" type="CELLRANGE">
+                    <a:fld id="{360B5BA0-A455-D148-B10F-15CEECB80477}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1869,7 +2074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5435B8C8-6F6B-4240-B46D-75BD01E3E1D4}" type="CELLRANGE">
+                    <a:fld id="{C37A3918-F0AE-FE48-A7C9-D53899B35464}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1902,7 +2107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FB60C29-A758-C048-8D70-CA7D0A04ED50}" type="CELLRANGE">
+                    <a:fld id="{DD5D0B99-4B9C-594F-8C27-D84CF46443E2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1935,7 +2140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D569F770-F178-0141-8713-9E0B222CFBD8}" type="CELLRANGE">
+                    <a:fld id="{9A54137E-7C2F-C14C-8ED5-C1E3234C8546}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1968,7 +2173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29991B5D-CBAC-F848-B1AB-CD2920620F40}" type="CELLRANGE">
+                    <a:fld id="{3B4484DF-CD3C-F644-B4A4-7B9FE357D2D6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2001,7 +2206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C7F75AA-FA0E-964B-AEC1-16D94E2C860C}" type="CELLRANGE">
+                    <a:fld id="{E86BDBF1-72DD-B848-AD6A-4595866FC2B7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2034,7 +2239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B8BE49B-C4C2-124F-88A4-19CD43E99BA6}" type="CELLRANGE">
+                    <a:fld id="{9164AE76-E4D3-B647-877A-AFBEEC9A8E37}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2067,7 +2272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACA61C38-DC86-BA4F-99FA-E1B638605C1A}" type="CELLRANGE">
+                    <a:fld id="{3E3400A0-5980-D541-AE33-3A7BCD65217C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F1A4C46-8E11-2C40-A4F5-66621C73677E}" type="CELLRANGE">
+                    <a:fld id="{EA124785-2166-A743-858B-77BF80B037BC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2133,7 +2338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85AE620C-DF1B-184F-BFCB-64855144C99D}" type="CELLRANGE">
+                    <a:fld id="{B8230868-DF5F-C844-8F76-6E8986144D0C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2166,7 +2371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1BD7A89-66F1-C74F-A8DE-3C6CBEA7DAE6}" type="CELLRANGE">
+                    <a:fld id="{5E0CFD36-C1F5-F242-A674-6F5E621CB38A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2199,7 +2404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{960CBC12-182C-ED42-BB8B-088CF4C9D0B5}" type="CELLRANGE">
+                    <a:fld id="{CB6EB7F4-1FE7-9244-841B-5CAD2F96CD65}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2232,7 +2437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BECC0C7-0531-BB47-AA63-7C674E7047CF}" type="CELLRANGE">
+                    <a:fld id="{1B359F68-3406-814F-9D88-88AF80CAC68E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2265,7 +2470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE70F31B-1FBD-1042-A7D4-F6E9B1E620F5}" type="CELLRANGE">
+                    <a:fld id="{45342FA1-8E38-2A42-A585-0F8A4D481A08}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2298,7 +2503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D27305A-6F53-3F4D-B7BD-8B5F8AD8A4EE}" type="CELLRANGE">
+                    <a:fld id="{29FB415D-08A7-8945-9274-AC9B6F921393}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2331,7 +2536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF54A135-43CB-1E4F-80EC-AC5DB390B055}" type="CELLRANGE">
+                    <a:fld id="{AD004D33-407F-3E4B-9062-14B3D649DB67}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2364,7 +2569,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F0F5416-3F48-5E42-8AD3-5E9444291916}" type="CELLRANGE">
+                    <a:fld id="{6ADC1B37-88A2-4444-8047-81EABC96AE0A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2397,7 +2602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9038CDD9-C9A1-9744-A19B-BB2D05A65E39}" type="CELLRANGE">
+                    <a:fld id="{ED481BBE-1548-1843-A29E-FED93B3DD821}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2430,7 +2635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FB4E055-507E-9745-AE06-0BB7E46A9FCF}" type="CELLRANGE">
+                    <a:fld id="{8A53D9BF-CEFB-124F-918D-1EF95B5471A2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2463,7 +2668,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F516E621-AE36-3241-924A-14D0D7B8704D}" type="CELLRANGE">
+                    <a:fld id="{2C1B5A1D-FA57-CC44-86F6-45EA5ED89A71}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3597,7 +3802,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30B7C8C8-6FF7-3C40-94E8-D0479F5AC34D}" type="CELLRANGE">
+                    <a:fld id="{51C6FC79-ABF9-6C4A-B471-7EBB8C694C33}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3630,7 +3835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{509F2A9D-7023-FE4A-BBBC-A9947BE0C7AF}" type="CELLRANGE">
+                    <a:fld id="{20FA96DA-DF59-F248-B0F6-AE724E6D9F25}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3663,7 +3868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F02A12E-2B33-B24A-A66F-5F8823B79D74}" type="CELLRANGE">
+                    <a:fld id="{14F77578-FAE0-D745-A908-B53DDA72EB27}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3696,7 +3901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{983A99E1-49B5-1B42-9ADB-DB6FB491EC6E}" type="CELLRANGE">
+                    <a:fld id="{C172C17C-9F3D-9A4D-BB74-7723DA108810}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3729,7 +3934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EDE73E9-B402-8B43-9A83-47E2C8534D6F}" type="CELLRANGE">
+                    <a:fld id="{D57D17DE-3D4D-694F-BC6B-ACD1366D7335}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3762,7 +3967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54CBFEB4-40EA-524C-93A6-333C70FCDC47}" type="CELLRANGE">
+                    <a:fld id="{7427C78F-BD75-5542-855B-FF60F15B9F99}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3795,7 +4000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE864574-0A42-4941-9E1C-8B2C6D104D1A}" type="CELLRANGE">
+                    <a:fld id="{BF850F6C-D136-F94D-8769-56913EEF46B8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3828,7 +4033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36B827CA-7A91-794F-9FFF-784E21118AEA}" type="CELLRANGE">
+                    <a:fld id="{6AEFDF80-5B29-FA40-A50A-AD8E6EE54993}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3861,7 +4066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{908B7CAB-F72C-A342-B381-09A00F4107E4}" type="CELLRANGE">
+                    <a:fld id="{85E18164-5D50-254B-8786-3FE6824407D0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3894,7 +4099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5608D11E-294F-AC44-847C-F3106A24688F}" type="CELLRANGE">
+                    <a:fld id="{F3C4E875-474B-BF40-A0A1-5877C00FD9C8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3927,7 +4132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9343989F-C9A6-224A-92DA-6AB64EBAF9D9}" type="CELLRANGE">
+                    <a:fld id="{5437CEAD-F245-234A-9982-AB932B690F1D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3960,7 +4165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36FB7133-0159-994B-ACF3-646D51509801}" type="CELLRANGE">
+                    <a:fld id="{8A80CCBD-176E-5F49-BC35-83D28CDD4D69}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3993,7 +4198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF7181D3-9BFB-8049-B652-615BFB52328C}" type="CELLRANGE">
+                    <a:fld id="{AC509E9F-B46A-DC4E-920D-139F7A8FCE27}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4026,7 +4231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{866BC2E5-601C-0242-8C57-19607FCB0274}" type="CELLRANGE">
+                    <a:fld id="{BB1D33D5-FE28-3648-9C62-57CE442B0175}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4059,7 +4264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{898E5B95-1F6A-BE43-90FD-4180BD96977D}" type="CELLRANGE">
+                    <a:fld id="{81D71D96-8850-2947-94AD-86AB3ED00B4D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4092,7 +4297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1492CFE5-E7DD-F140-9BCD-15F2F9FA7271}" type="CELLRANGE">
+                    <a:fld id="{0DB6EE4E-2EF8-1F46-9877-962ABCE6A9DA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4125,7 +4330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E892D3AE-CF22-534D-8FB0-614B21FCE36F}" type="CELLRANGE">
+                    <a:fld id="{079AE6A0-615E-2941-B23D-52CA4F53DFD1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4158,7 +4363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF4F74E8-45B3-6B4A-8D08-243CE881A706}" type="CELLRANGE">
+                    <a:fld id="{191F7008-DF64-BB40-B060-3E228DD0B8BD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4191,7 +4396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28EE1C59-4E2F-7344-9E72-2AABC959831C}" type="CELLRANGE">
+                    <a:fld id="{BAF9FB3D-4795-F541-9AEF-071A0A6ECA41}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4224,7 +4429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02AC0861-C1EF-4144-8628-B6556A54CEEB}" type="CELLRANGE">
+                    <a:fld id="{1682B66C-3333-344A-ADD2-B14CB3E359E9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4257,7 +4462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10D6502B-52BA-074D-A5EA-5479F35CDEDC}" type="CELLRANGE">
+                    <a:fld id="{6E731F60-D282-CC44-BF60-CDC39DE6FE1C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4290,7 +4495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BC764D2-4FEC-F945-8658-72E070C8D217}" type="CELLRANGE">
+                    <a:fld id="{E433A27E-7C02-3247-9ABB-9D48B2589715}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4323,7 +4528,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93A51FF1-C5BC-F340-8F4B-87E3F3EC8F07}" type="CELLRANGE">
+                    <a:fld id="{67D27EF9-8440-7943-9B89-15B35E95EB47}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4356,7 +4561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C18DA70F-4E99-6143-A3A8-CEBF0277A7A2}" type="CELLRANGE">
+                    <a:fld id="{3E774666-2B81-3C4C-B0AF-0F95FB73723C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4389,7 +4594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1EB4D482-019E-6B47-A2BA-87709973C123}" type="CELLRANGE">
+                    <a:fld id="{8FA684BD-0BE2-A047-A4D8-AE159F92C4B1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4422,7 +4627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39CF7D0F-DC69-2D44-B4A1-D86E607C7DA5}" type="CELLRANGE">
+                    <a:fld id="{BFD057E1-5C5F-5248-ABB2-6D1A99C245B6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4455,7 +4660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D382B8E-F356-014B-8979-6430AAEDAB37}" type="CELLRANGE">
+                    <a:fld id="{8B9C7520-0D96-4F4C-80DD-4177071BFB5E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4488,7 +4693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{895BB6AE-7DFE-BC42-8370-7BEBB26E3873}" type="CELLRANGE">
+                    <a:fld id="{DA81C3FA-37BC-6245-98AB-9CB9AA295982}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4521,7 +4726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA576FAF-8E3A-2141-88C2-7EC76F630475}" type="CELLRANGE">
+                    <a:fld id="{20FFEFD4-F559-764B-BD08-D6BA79A4D1F3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4554,7 +4759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{075B6EF0-B6B5-F54A-BF6B-9EFF5E1CDAD6}" type="CELLRANGE">
+                    <a:fld id="{CDE2C8F0-9791-AB42-8FC1-F42DAD3AFDC3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4587,7 +4792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D202B483-4E1B-0A4E-A7A9-35B0927D9352}" type="CELLRANGE">
+                    <a:fld id="{9B031C0E-E305-5B44-9DB4-A9D9E1FE3467}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4620,7 +4825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70D8454F-3EF4-724D-8512-3805FCDA26C6}" type="CELLRANGE">
+                    <a:fld id="{5ADD9930-76AD-9047-B21C-9BC044DE9C61}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4653,7 +4858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D9FC2D6-CCCC-DA47-B9BA-DCBA99F2FFE1}" type="CELLRANGE">
+                    <a:fld id="{33B71D68-1537-4F44-B5B6-3EF75F04760F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4686,7 +4891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A17E30D8-2AF1-1148-8530-5FABF0D3438B}" type="CELLRANGE">
+                    <a:fld id="{4786167C-442D-244F-8251-91BD1687662D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4719,7 +4924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A00B976-69F4-0E41-8D77-21AC9274AD92}" type="CELLRANGE">
+                    <a:fld id="{89EA86E2-7F20-6641-B341-53D17315A1DF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4752,7 +4957,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F12794F6-1AD9-F042-BFDF-5E814B4C1D2F}" type="CELLRANGE">
+                    <a:fld id="{CB66098B-D9FE-7741-86C8-7C2C9286427D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4785,7 +4990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D91EF14F-6EF9-984B-9C20-31D15671F06D}" type="CELLRANGE">
+                    <a:fld id="{627EE6AF-F71C-9B4E-94B9-0B8906BF5D2C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4818,7 +5023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE1BC37B-A314-E845-88B7-711460D13CB9}" type="CELLRANGE">
+                    <a:fld id="{76F41ECA-ABD4-344F-B63C-700CC9E067AF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4851,7 +5056,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84723AEE-E579-5D48-8CFB-455D2E496D0B}" type="CELLRANGE">
+                    <a:fld id="{52C3D1AF-B404-4742-B459-7A7E7BA73E38}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4884,7 +5089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F1C691B-B347-DB45-B486-651643E92D77}" type="CELLRANGE">
+                    <a:fld id="{E7A0CE6C-9619-1C4E-A906-D6889EA168C4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4917,7 +5122,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63AF023E-ECD9-7F44-8F16-211F4ED5B102}" type="CELLRANGE">
+                    <a:fld id="{2670EF86-2E5C-BB40-9EC9-F4D4A5879193}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4950,7 +5155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C5003C0-2677-A546-9C99-89DD8CAE63DF}" type="CELLRANGE">
+                    <a:fld id="{740B8FC5-BE21-EC48-B4A7-8129AF98BB84}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4983,7 +5188,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40ED4355-F0FF-7747-9D11-A35293B4C0E8}" type="CELLRANGE">
+                    <a:fld id="{7A36F519-1A38-324C-A454-C1840C884182}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5016,7 +5221,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BC498E3-D5AA-6A44-AA66-E4BD23395ED7}" type="CELLRANGE">
+                    <a:fld id="{FB2FB475-9064-9D4A-9302-BAC33DE1E7DA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5049,7 +5254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4455D0DE-83EF-D848-84F1-272180987AC7}" type="CELLRANGE">
+                    <a:fld id="{D1313BF9-EE1D-984B-A320-F1BDA14CCD87}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5082,7 +5287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{929EA3B2-391B-9145-A68F-8E1043FF68C7}" type="CELLRANGE">
+                    <a:fld id="{53409640-2459-8949-9377-5C0BA1FF9794}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5115,7 +5320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11C63338-9B97-F640-AAA0-D61C5BFC9819}" type="CELLRANGE">
+                    <a:fld id="{3987579C-83D9-764F-B54C-5CCC6F342217}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5148,7 +5353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5958BE27-6887-FB4B-A6BC-03C5E42205F6}" type="CELLRANGE">
+                    <a:fld id="{1537EFAA-306C-D540-B75C-1C9BF975B6EC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5181,7 +5386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1EAFCC6-1159-8F46-9287-BB4DE39BDFDA}" type="CELLRANGE">
+                    <a:fld id="{B24F90C7-C0C7-5C44-8B47-7CCBE352B972}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5214,7 +5419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87C9FA21-9AEE-F448-8C0A-7D062C63D7EB}" type="CELLRANGE">
+                    <a:fld id="{ADFE148B-F499-134A-8BD2-4670F8CC8D6D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5247,7 +5452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4B741CF-C829-F640-B431-F7AD9FC7A4D8}" type="CELLRANGE">
+                    <a:fld id="{B16D2330-F40B-6648-907F-37337F00FB7D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5280,7 +5485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B15CC7B-E523-4F49-B9EC-91F03C94FEB0}" type="CELLRANGE">
+                    <a:fld id="{123144E2-704D-F942-8F1E-22CDC5760E96}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5313,7 +5518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2666F002-AFEF-6E43-8446-7E8A547E1BFE}" type="CELLRANGE">
+                    <a:fld id="{804C6A8E-EAB9-AB43-9F71-005BEF1B3F18}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5346,7 +5551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27C0A026-37AD-4C48-91A4-9E1362FC0BEF}" type="CELLRANGE">
+                    <a:fld id="{15C238EE-53B2-A141-A884-1913BB568451}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5379,7 +5584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0F5A021-73C9-E241-9017-E33A2D0E69E7}" type="CELLRANGE">
+                    <a:fld id="{E4E9BF12-7C2B-3A44-8D25-E2064E1BC45A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5412,7 +5617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC796708-5A78-6649-8D0C-FA61304048D2}" type="CELLRANGE">
+                    <a:fld id="{1FBFEEF0-484F-1746-999A-067A9D988C45}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5445,7 +5650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9637A70C-C75E-5046-8510-15FC5D3341C8}" type="CELLRANGE">
+                    <a:fld id="{AE9DCD1D-393F-5048-A36A-F7B665630370}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5478,7 +5683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C83B40B4-EAC0-FF45-9D28-8042640F0C69}" type="CELLRANGE">
+                    <a:fld id="{4B4DC267-903B-604B-B9F7-15364D6533F3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5511,7 +5716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{611FA899-4CBA-3B4B-8C9F-AA462F94770F}" type="CELLRANGE">
+                    <a:fld id="{D7E878F1-6ACF-1344-AABB-E883FEBFFA50}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5544,7 +5749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A8E0D2-5AB3-CA4C-B3E0-24586E3D71F0}" type="CELLRANGE">
+                    <a:fld id="{E0D078D9-C0ED-BC4D-9178-0535393B7DBE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5577,7 +5782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61080B81-8FFC-DE40-9093-497F01591374}" type="CELLRANGE">
+                    <a:fld id="{2AB7090B-A0B0-B842-8C1B-C4385CA92FCF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6730,7 +6935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57A53282-26F4-BB44-8E88-B4C1CA9389EE}" type="CELLRANGE">
+                    <a:fld id="{ECC5023C-5301-C44D-898B-1EF2243B061E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6763,7 +6968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F4AA789-CCA9-7B4A-B7C6-0FB26EAA02EB}" type="CELLRANGE">
+                    <a:fld id="{4C3751F7-6B86-CE40-B06B-5D5A517AC22F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6796,7 +7001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91E2F5E7-4919-8D42-B6C5-F47652D51FB0}" type="CELLRANGE">
+                    <a:fld id="{6F5D2994-F6B8-AF4A-BCC6-007668A8273F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6829,7 +7034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75D92B9D-50FD-CB44-A4B8-EDDEFDE28D5F}" type="CELLRANGE">
+                    <a:fld id="{4D7AA2A9-9305-3042-B7BA-6EBC4AE15BC7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6862,7 +7067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40D73415-5E30-E146-85B0-B07E70C1AB97}" type="CELLRANGE">
+                    <a:fld id="{A499A419-D44D-954A-95B5-990B506821FE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6895,7 +7100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68F72EE5-187C-5F4B-9019-461FF1C13CB3}" type="CELLRANGE">
+                    <a:fld id="{43D8F264-3608-7A48-8C9B-2067EA3BCBF0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6928,7 +7133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C59BCAC9-7566-9041-92C2-92D79D06C815}" type="CELLRANGE">
+                    <a:fld id="{0117BFBF-A90A-E042-8D30-BD4183C91B37}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6961,7 +7166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1952C42F-E492-3140-8F71-33712394C764}" type="CELLRANGE">
+                    <a:fld id="{9FD0836F-BB99-454C-AD1C-A01B5D2DCD74}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6994,7 +7199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CB00B4F-06B9-2D4D-B0DC-51CF2EF5A8A8}" type="CELLRANGE">
+                    <a:fld id="{72504433-F040-6D48-975D-1107A9AE6330}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7027,7 +7232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03284A1F-B4B1-FA4E-8CFD-E5655CC35E6F}" type="CELLRANGE">
+                    <a:fld id="{A1789987-9038-9241-8E8D-5042AB7B863A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7060,7 +7265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEEC8A2B-7BD3-B04B-85C9-457CF395F25C}" type="CELLRANGE">
+                    <a:fld id="{3876BFFF-B5D0-4344-9216-99E38414843E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7093,7 +7298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71EBFE60-2F7A-0B49-8127-F332ADF98892}" type="CELLRANGE">
+                    <a:fld id="{A090662B-C094-7F40-B35F-60BC2BCA67FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7126,7 +7331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21AE3C7C-2B47-D945-8DDC-1408D2101458}" type="CELLRANGE">
+                    <a:fld id="{6ABF884E-5880-DE4B-B799-76B415A61D2A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7159,7 +7364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66F7924C-0002-5949-BDEF-AA15D6CE670D}" type="CELLRANGE">
+                    <a:fld id="{0EEAF22E-B4ED-1544-A847-28EB82095C92}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7192,7 +7397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FE6F026-9A5F-1942-B535-E560AB4D27DD}" type="CELLRANGE">
+                    <a:fld id="{B0A1565D-69F6-0B4A-A54B-0AC6993438A4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7225,7 +7430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFE20A5B-51F3-2147-9624-2C57EDF5BF3C}" type="CELLRANGE">
+                    <a:fld id="{F5B3BE2A-4437-FF4D-865C-C1B5DF92AE43}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7258,7 +7463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E25B1E4B-9021-7345-80F3-2607CB247CDA}" type="CELLRANGE">
+                    <a:fld id="{00845D16-3732-E748-BA69-26959755F8BE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7291,7 +7496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{213FE6F9-3BDA-5C44-B48E-21C39788469F}" type="CELLRANGE">
+                    <a:fld id="{D5B18ECC-9A67-D348-94B2-6B40998635F3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7324,7 +7529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{058DD432-8096-DB48-A993-967D8FD70AB7}" type="CELLRANGE">
+                    <a:fld id="{AC4BB892-61FD-E841-86D5-1A929BE70B9B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7357,7 +7562,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF12CD42-94AE-1043-8BAA-8DBF8E238D58}" type="CELLRANGE">
+                    <a:fld id="{A870B0A1-F465-FB4C-B8FA-E3815C695C76}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7390,7 +7595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42DD0598-2570-3F4B-AE5B-AD090AC263BB}" type="CELLRANGE">
+                    <a:fld id="{94C53583-0B5C-B648-9222-24E1F407D175}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7423,7 +7628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5608EC4F-D5ED-184F-A3FB-28C0E15EC87E}" type="CELLRANGE">
+                    <a:fld id="{D1AF883A-9FE0-D64F-9C3F-6FEE1ACCAA02}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7456,7 +7661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BDACE34-DBF0-0944-A7FD-58368B29325E}" type="CELLRANGE">
+                    <a:fld id="{C2B20714-553D-5549-9073-13C009523BB6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7489,7 +7694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0CECDD0-96AA-9648-A716-5CA2B1CD172C}" type="CELLRANGE">
+                    <a:fld id="{D8B22056-2B54-ED43-9A0E-D9968BD2C278}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7522,7 +7727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70568BBF-ED64-5549-AE76-D7486549253D}" type="CELLRANGE">
+                    <a:fld id="{C8DDF288-7C75-EC4A-AD6C-EC7FFA5C3195}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7555,7 +7760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{338AA302-1C8C-9041-93E6-D25A11696068}" type="CELLRANGE">
+                    <a:fld id="{B2BF93BA-CABB-D046-A707-846BBB34E352}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7588,7 +7793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0EB6067-AE3B-6F46-B74B-E23DEAC0B629}" type="CELLRANGE">
+                    <a:fld id="{7B3D0C99-2EA5-464B-9892-0562B7B187D9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7621,7 +7826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C35A16D-0E83-464A-AF4F-340457EF0103}" type="CELLRANGE">
+                    <a:fld id="{3C4EB7B9-96FC-C24B-BB33-ED33C95278FA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7654,7 +7859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3287A97-CF46-FA43-B783-02E3B93F2865}" type="CELLRANGE">
+                    <a:fld id="{656E4A56-62D8-D041-BC47-CEACC56839CD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7687,7 +7892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D1D2BED7-BD66-BE49-B030-9763795AF9D6}" type="CELLRANGE">
+                    <a:fld id="{105C13E7-1517-7147-88CC-6B13BAE31BBF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7720,7 +7925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9240186D-19B0-C54E-A1D2-E0AD17585881}" type="CELLRANGE">
+                    <a:fld id="{0F4EB764-837C-244D-9EFF-637FEF2CABD7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7753,7 +7958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9801BFB1-11BF-BF40-A453-153024CC6842}" type="CELLRANGE">
+                    <a:fld id="{C706A6F2-1BDB-2045-A48D-0E1D7607B3A8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7786,7 +7991,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9F015C8-7CDA-744F-BED9-177EA2BD3E73}" type="CELLRANGE">
+                    <a:fld id="{D993EC9E-7B0D-C447-AF60-B8EF0BF5F544}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7819,7 +8024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{445E2015-C1E7-4A4E-989E-4A336752BFA6}" type="CELLRANGE">
+                    <a:fld id="{BA34F2E1-B327-EF46-A867-ED9CF5E331DB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7852,7 +8057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{741818BD-7205-244B-A0F8-AC5FC03C3FAF}" type="CELLRANGE">
+                    <a:fld id="{C319F49F-F40E-A943-81FB-E639FDA2C089}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7885,7 +8090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A37623-DB8E-7440-8FC4-FB78C90A8370}" type="CELLRANGE">
+                    <a:fld id="{08AE37FD-49E1-E64D-9622-7A1A97480A9E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7918,7 +8123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC53412B-55F3-F046-9C18-6CC14B216249}" type="CELLRANGE">
+                    <a:fld id="{9D32CED5-369E-8441-8A4E-468C2F1D28FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7951,7 +8156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86575E32-01AE-2E4B-A839-5D281F58291E}" type="CELLRANGE">
+                    <a:fld id="{FAC23128-09C7-B24B-AED5-037A9306380A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7984,7 +8189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{654FDA55-0115-EB49-8DFF-CD9335E5E97C}" type="CELLRANGE">
+                    <a:fld id="{6EC8BB4C-083A-514E-BAC7-51C89EC3DC19}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8017,7 +8222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1327A27-7A69-5244-9B31-CC17CD44FDC4}" type="CELLRANGE">
+                    <a:fld id="{FE15BCCF-59B4-7C47-9E1D-C954FF270275}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8050,7 +8255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DE925A7-6304-704A-9673-10E6F7A947A3}" type="CELLRANGE">
+                    <a:fld id="{04EED3C7-F9FB-8640-9168-A8F11CBA52F0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8083,7 +8288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16FFDABB-A35A-AA48-93A2-561ED9AC1AFD}" type="CELLRANGE">
+                    <a:fld id="{E50C931B-E086-DB4E-B3EC-154223B4B921}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8116,7 +8321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A1F96DE-4FC7-EF42-B76B-C80A9638D1AF}" type="CELLRANGE">
+                    <a:fld id="{9A14453C-A784-1C4A-9231-FCF9CCC52A1A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8149,7 +8354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2699B9C-4718-C34F-A6D0-802D27EB557E}" type="CELLRANGE">
+                    <a:fld id="{A6A56749-E9B8-814E-9EB8-ED448B6B2ADF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8182,7 +8387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF104FA6-685F-C94E-8D90-AE97759C5CD1}" type="CELLRANGE">
+                    <a:fld id="{34A8698F-D131-1E41-86C0-1772300DFE2A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8215,7 +8420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE8149BE-0F8A-384C-BEFF-EA64BC5B1B85}" type="CELLRANGE">
+                    <a:fld id="{C11AD490-AE4F-3A4B-83BF-A2C69F9E6D8A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8248,7 +8453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEAA15A8-05CB-4B4C-8A9B-3D087EFB498E}" type="CELLRANGE">
+                    <a:fld id="{65D9FB4F-55F8-694E-A022-7C9B214EF00F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8281,7 +8486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23D206D9-AACC-3E42-A181-BD70F5FE5C6C}" type="CELLRANGE">
+                    <a:fld id="{4344AA70-E47E-1C41-9350-6B7CB626F6AA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8314,7 +8519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36C4369B-6D15-7A4C-A5ED-A22080E2DFC6}" type="CELLRANGE">
+                    <a:fld id="{1DE35DE9-771D-B842-9939-8BB1901A81D5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8347,7 +8552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{417BD0AF-965C-7746-BB0B-FB347BF8EFDB}" type="CELLRANGE">
+                    <a:fld id="{25C511FB-0F41-B14A-A23B-23A625861E53}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8380,7 +8585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{619387B8-7162-544B-AE56-C37AB7382513}" type="CELLRANGE">
+                    <a:fld id="{8D774187-C20C-D144-AD91-419A0A6267BE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8413,7 +8618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BC0C30F-12D2-F347-8457-E2F2CE2EA8D8}" type="CELLRANGE">
+                    <a:fld id="{ABCDD87D-1D1A-9244-B075-65098E055C04}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8446,7 +8651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE9143E-DE8E-0344-964D-384C6E7611F9}" type="CELLRANGE">
+                    <a:fld id="{DFE07124-B2BB-7B42-B1CE-09E7FB09D206}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8479,7 +8684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E481BD9F-8BE0-7648-B032-8AB09FBF6D78}" type="CELLRANGE">
+                    <a:fld id="{7D59A655-F518-AD40-B1F4-42496542E928}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8512,7 +8717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82761871-229A-C040-B033-623EBCC9A14A}" type="CELLRANGE">
+                    <a:fld id="{EE373DF9-2214-1A46-A60A-29BF4E80F77B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8545,7 +8750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B799273-B949-F246-B014-12281E966982}" type="CELLRANGE">
+                    <a:fld id="{6FE95DF4-B70E-994D-997B-85BABFB6A136}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8578,7 +8783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{36B39870-4C5B-BE40-B12D-C7B511AECB47}" type="CELLRANGE">
+                    <a:fld id="{CC9ABD5A-07E2-E049-A2CC-954905193242}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8611,7 +8816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1303F406-7548-734F-BD6C-D685A65DAB64}" type="CELLRANGE">
+                    <a:fld id="{62ED1CF2-DBF7-0A4F-9FB5-1B7ADDF6314C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8644,7 +8849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4540988-FCC9-814C-B16F-DA9A4977A068}" type="CELLRANGE">
+                    <a:fld id="{DC6D7ECB-6372-B443-B166-8E54AD9BE0C8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8677,7 +8882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{888D9A74-7368-E342-A4B0-2126695B6A18}" type="CELLRANGE">
+                    <a:fld id="{37301334-A717-C24C-B6EC-5D846310BFF8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8710,7 +8915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6E9117B-4177-2D4A-AD22-1CC0E7FE340A}" type="CELLRANGE">
+                    <a:fld id="{144D7E77-5796-6A41-B857-E6BEA04B0B7C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9849,7 +10054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9108BEA6-FD22-9842-BFDC-A2CA05E65EA7}" type="CELLRANGE">
+                    <a:fld id="{601C1988-F972-5746-8BD9-CC0768DD192D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9882,7 +10087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1EB9811-013D-AF4D-8043-99C1206771E5}" type="CELLRANGE">
+                    <a:fld id="{51F9F034-9216-DC47-BD7C-1C6966222196}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9915,7 +10120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBEED8B9-952B-0140-AE31-69584092552B}" type="CELLRANGE">
+                    <a:fld id="{72BD4F65-5810-1B46-AB91-D3E6E167AA2B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9948,7 +10153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C64BFB7C-2237-484B-AEC1-BBA49647B94C}" type="CELLRANGE">
+                    <a:fld id="{E219E7D2-EC5B-5048-963B-4917A8972D78}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9981,7 +10186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9454237-74C9-3249-8B4C-B0C9FCA9DE47}" type="CELLRANGE">
+                    <a:fld id="{BEBDA939-3F3F-174F-93D6-0FA13E96A943}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10014,7 +10219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85AB67BC-7B20-394A-B4D4-DCDEC5580F85}" type="CELLRANGE">
+                    <a:fld id="{4EB0A2C6-F285-264B-A34D-D0637ECEF0CE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10047,7 +10252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D644D147-017C-1C4B-812D-99BF77A42E6B}" type="CELLRANGE">
+                    <a:fld id="{14750903-2BDB-C74D-9A32-5F7C42FAB91F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10080,7 +10285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{041E2F0B-2556-B745-92EC-58C6F02D3329}" type="CELLRANGE">
+                    <a:fld id="{9E88CA08-F7EF-004B-9354-DF8D78ED608E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10113,7 +10318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE7617B4-A3B4-704E-956D-B90E45B058DB}" type="CELLRANGE">
+                    <a:fld id="{77CA60BB-74AC-CA47-A964-937234F05DB4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10146,7 +10351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C9A4802-C58A-EF4C-957D-DFE31745E871}" type="CELLRANGE">
+                    <a:fld id="{914F3965-09D5-7340-8A11-753A14B800C5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10179,7 +10384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EC5DB60-3DD5-B445-A46C-0016B99E3557}" type="CELLRANGE">
+                    <a:fld id="{237CDA1E-8CE7-9743-8B4A-C555D00FDC65}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10212,7 +10417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{78EFE5AF-7AE1-F945-8249-DCA6DE0B65F8}" type="CELLRANGE">
+                    <a:fld id="{82CC7954-A980-D049-83A4-B813D3C5887D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10245,7 +10450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{729899F0-78C4-EC41-B0BE-C73DAC167358}" type="CELLRANGE">
+                    <a:fld id="{B531D67C-F88F-1947-B131-0E48C9BB626C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10278,7 +10483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C26C8F-FE51-5348-830C-CACAA00A2C57}" type="CELLRANGE">
+                    <a:fld id="{F1BBFC6A-AB41-104A-B214-154E5990ECCC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10311,7 +10516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A77E419F-AEC4-784E-89A0-B4113E9A0CDD}" type="CELLRANGE">
+                    <a:fld id="{0F16FBC9-531A-3F48-906C-D37162D8C220}" type="CELLRANGE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10320,7 +10525,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{CA6248BE-58E9-1E45-A995-1C9B13EAF5CC}" type="SERIESNAME">
+                    <a:fld id="{DAFCDE64-4C3F-C54C-9E07-008CA5E46CB3}" type="SERIESNAME">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[NOMBRE DE LA SERIE]</a:t>
@@ -10352,7 +10557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E6F62B2-E52C-904D-A922-94EEF9DCF816}" type="CELLRANGE">
+                    <a:fld id="{01466FE0-BCE4-5646-AFBD-D5573FDF6093}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10385,7 +10590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{538DCF11-E627-394F-AE03-666720F78BEF}" type="CELLRANGE">
+                    <a:fld id="{51908823-CCCF-F34E-8A14-CCA716168029}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10418,7 +10623,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDDB1AFB-B265-C849-8D18-339CCA301205}" type="CELLRANGE">
+                    <a:fld id="{EC448CCF-F2A2-9549-B6D0-0616E9D68B7E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10451,7 +10656,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50CF2B5C-B8D4-F249-A43F-88A77B10EA43}" type="CELLRANGE">
+                    <a:fld id="{89100287-D684-9D4A-8D81-6279A6527311}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10484,7 +10689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCA624CA-BC8B-4641-B955-81C2C86DE109}" type="CELLRANGE">
+                    <a:fld id="{4D12D7DB-ED70-5244-ADAA-3FDA40318164}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10517,7 +10722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0C926A4-004D-904B-92FC-7B8DAC32F1F4}" type="CELLRANGE">
+                    <a:fld id="{4009E5E8-89D1-8D47-BF6B-4EEA111167C7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10550,7 +10755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1BF74BE-4E19-7F4B-9665-C19DDD148A76}" type="CELLRANGE">
+                    <a:fld id="{9B3AEF66-B02A-3043-BFD8-6C20AE5584D1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10583,7 +10788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B788CB6B-2092-DE40-A50C-A9CBDB3B13CC}" type="CELLRANGE">
+                    <a:fld id="{EB4161E1-6335-034A-8679-DF553BA5E430}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10616,7 +10821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1671BA7-F2D1-754A-8AC6-A7E8DEAEA703}" type="CELLRANGE">
+                    <a:fld id="{D2676F0C-0296-1144-B15D-9D2739A4A12B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10649,7 +10854,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20D49CA5-340D-B045-8BED-15DC6F3DF59B}" type="CELLRANGE">
+                    <a:fld id="{FBE4030B-A735-5145-BE83-BD05BB999E08}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10682,7 +10887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{052E1191-575C-CD4A-BB2B-6A2C10D9008E}" type="CELLRANGE">
+                    <a:fld id="{197B043F-09DC-9747-8801-719254B9675E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10715,7 +10920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0800EEC4-B3DD-564B-8A0A-BDC73AD59409}" type="CELLRANGE">
+                    <a:fld id="{186D6136-1C6D-BE47-867A-752C5A31D49E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10748,7 +10953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57C65C9E-53E7-214C-9B4E-A75A6BAFD92C}" type="CELLRANGE">
+                    <a:fld id="{E929B15B-4570-6343-9EF1-CA7E3D978F80}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10781,7 +10986,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF06EAB2-1839-254D-96EF-F8136CCAA2F7}" type="CELLRANGE">
+                    <a:fld id="{86AB7919-F122-3149-BAB1-0EBA5F784C94}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10814,7 +11019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{979CD130-484D-3E42-A45D-BFE80C60036F}" type="CELLRANGE">
+                    <a:fld id="{9A30A829-9919-8E44-B62D-6FC08F829E18}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10847,7 +11052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3DF324B-CCEE-194C-A4FE-04DAD03D5DC6}" type="CELLRANGE">
+                    <a:fld id="{822D1F76-8380-DC43-9625-D15AB7938A4E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10880,7 +11085,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B94F8B86-C9CE-A34E-9F13-38BD140BBF84}" type="CELLRANGE">
+                    <a:fld id="{26D8DE5C-CE59-BD43-B9F0-9EAA8D09918B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10913,7 +11118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B59B36B1-A174-C14B-810D-C9DD7520EF3E}" type="CELLRANGE">
+                    <a:fld id="{E4DE95D9-EEFB-3943-ADF8-96997BE5084B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10946,7 +11151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{306A1F97-6AE4-524E-8B51-5FC9A145E936}" type="CELLRANGE">
+                    <a:fld id="{0D1C28FD-8479-AA42-910F-1DCF0AC1F5A2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10979,7 +11184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{315431B2-3F45-FD4A-AE90-281136B015DD}" type="CELLRANGE">
+                    <a:fld id="{BA751699-8018-DA40-A1BD-BB9CAED24C30}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11012,7 +11217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C71526E-ACB8-9D4F-B550-C894F25DC246}" type="CELLRANGE">
+                    <a:fld id="{6FAFE688-071D-4345-A34A-91F7EB3ECBA0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11045,7 +11250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33E8B2AB-68F9-694F-B831-F78DE545AB94}" type="CELLRANGE">
+                    <a:fld id="{18864664-5701-BA46-A590-BD84EF112D4F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11078,7 +11283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF806AF9-FA49-3F41-8951-B6DE13865EC5}" type="CELLRANGE">
+                    <a:fld id="{B7F89240-0179-2D4E-9F63-C8AB4D13DB07}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11111,7 +11316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AAFE016-D480-564A-85D7-6115177D9BD5}" type="CELLRANGE">
+                    <a:fld id="{D542CD71-66AF-4341-983F-4879AD6829C4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11144,7 +11349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E481CE4A-810C-3740-AD45-91E3A64D8E31}" type="CELLRANGE">
+                    <a:fld id="{B8E90F8F-37B5-5645-8FD7-3D046EAADC5C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11177,7 +11382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4DF61A5-2B1E-134C-A6FA-6CA141392D10}" type="CELLRANGE">
+                    <a:fld id="{55A258F5-73C4-FB48-B787-42C6157E4947}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11210,7 +11415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3336B07-892B-7A4E-861C-55A80D76DD09}" type="CELLRANGE">
+                    <a:fld id="{F661391B-9CE7-9649-A71A-77A1E49FB70E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11243,7 +11448,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EB9335B-44AD-2142-90E4-2E2FF3BD29A3}" type="CELLRANGE">
+                    <a:fld id="{D3A27C65-9547-4C4A-8456-3FC33F414A63}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11276,7 +11481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29870FF3-FFBA-434D-B681-53905F52555F}" type="CELLRANGE">
+                    <a:fld id="{850F79CC-FD5B-4244-BFB2-776300B5CD62}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11309,7 +11514,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CA02D88-B43E-A244-8255-887170E457D9}" type="CELLRANGE">
+                    <a:fld id="{77BCF863-164B-2D48-AA6A-E0F11FA9FDB6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11342,7 +11547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D17DAC72-AE73-3B4F-B468-9730BA9E12B4}" type="CELLRANGE">
+                    <a:fld id="{7070E8A1-19FC-104F-90FE-F492A4E005C3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11375,7 +11580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D001231-087E-324E-BCFD-97B2B3BB88E3}" type="CELLRANGE">
+                    <a:fld id="{F81AB77A-3E11-B34A-82BF-7BD74FF2CA2D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11408,7 +11613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0330FE96-805B-264C-B887-257289FA18BE}" type="CELLRANGE">
+                    <a:fld id="{4A78C26D-FB7C-F541-A23E-BAB841FEE300}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11441,7 +11646,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5993A025-D7A7-0542-9361-6BDF50B61914}" type="CELLRANGE">
+                    <a:fld id="{948DB1DF-0C05-D94D-B11D-2C59B2769333}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11474,7 +11679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91A3AE09-2E11-324A-AAA4-745E865E8C73}" type="CELLRANGE">
+                    <a:fld id="{D4CC0FAF-6181-0045-855C-ED263DAF9AED}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11507,7 +11712,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB0DECE6-4FEB-C946-9A0E-D5DAF78BF864}" type="CELLRANGE">
+                    <a:fld id="{2E419673-3C11-6C40-858B-3AA6F949FD1E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11540,7 +11745,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9DF0EB3-127F-824E-B023-94398E94881E}" type="CELLRANGE">
+                    <a:fld id="{630F2DFE-6B99-D748-BFA8-0C5190857186}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11573,7 +11778,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09BAF714-C012-7F4E-BC45-120ECF7899B1}" type="CELLRANGE">
+                    <a:fld id="{7D0DD3F8-53D6-4A40-8B4E-AB3AABA622F4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11606,7 +11811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29BB2DA6-1681-964D-9EBF-536F51D6AE9D}" type="CELLRANGE">
+                    <a:fld id="{9BDFB79F-ADFD-414B-A274-2F735D7DACE9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11639,7 +11844,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79F4EEF1-5C67-6D40-B053-54E1536B1A40}" type="CELLRANGE">
+                    <a:fld id="{21BA0F97-5746-3B46-9BC3-3D1EB6BB6027}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11672,7 +11877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D30E5BE-C949-AC4B-B642-40598B12C2B8}" type="CELLRANGE">
+                    <a:fld id="{6CD9724B-F65F-9349-8274-F984DBDB09D0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11705,7 +11910,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DD98576-7253-8049-8F5F-6E821FD6B62B}" type="CELLRANGE">
+                    <a:fld id="{8C4934AC-EB32-6549-AFD6-A493C7D8F6B3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11738,7 +11943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E44E967A-C8E1-164B-AC83-57557ADCB545}" type="CELLRANGE">
+                    <a:fld id="{B4873B57-B5F5-9949-A570-1A4606DA952F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11771,7 +11976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3FFCA9E-DA56-E644-83C0-1AA4922D820D}" type="CELLRANGE">
+                    <a:fld id="{8D188B41-3BB5-E346-A725-1B8D3CB91319}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11804,7 +12009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB31250F-33AC-B246-9FD8-02BA78C86F3F}" type="CELLRANGE">
+                    <a:fld id="{18A8F785-63AC-754F-9C62-4BE20B182C66}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11837,7 +12042,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B2F1CE7-753D-8F4F-89C6-69EE90BF32AC}" type="CELLRANGE">
+                    <a:fld id="{9CC8415A-FD96-0B47-86B1-5C2462C30074}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12875,7 +13080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D78F3574-5020-8144-9485-8871203C8191}" type="CELLRANGE">
+                    <a:fld id="{CD68FDF8-498A-234A-947B-F6C863FE67C6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12908,7 +13113,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32DE00E9-BC4D-EA4D-86F7-E21CE551D9D4}" type="CELLRANGE">
+                    <a:fld id="{D8560623-9328-A140-B902-2638CEFD43AE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12941,7 +13146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CD2BC81-1BC3-1C4B-8EFA-CDEBE51B92DD}" type="CELLRANGE">
+                    <a:fld id="{839A9698-4040-A84A-BAF8-7CB4B339CAE5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12974,7 +13179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0C1327D-AAF0-CB46-804C-499A83DCC94B}" type="CELLRANGE">
+                    <a:fld id="{8B479890-D537-494A-A2EE-D600928C4B2A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13007,7 +13212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5D34600-1F22-3448-9BA6-07AC36D92336}" type="CELLRANGE">
+                    <a:fld id="{6CAD4EB7-769E-664E-A97F-8B33025CD7F1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13040,7 +13245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1B16CE5-673C-B34A-A3AB-99CB6EED4F5E}" type="CELLRANGE">
+                    <a:fld id="{D3A6DF24-071F-EA45-BD5B-E28F4AFCEEF7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13073,7 +13278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4387E8DD-E6F1-E548-BDEE-D0FFF979E7B4}" type="CELLRANGE">
+                    <a:fld id="{E11B5514-9DD8-B94B-A7F6-8224C76B9955}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13106,7 +13311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9C84336-7C3B-564E-B48B-2AB7769DFE5C}" type="CELLRANGE">
+                    <a:fld id="{DAD2C210-FB5C-5744-A713-0EE0BD4BF9F6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13139,7 +13344,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E31C823-886F-F54F-89D2-98495C1E534B}" type="CELLRANGE">
+                    <a:fld id="{F2C21DD2-07D3-1040-A671-E59F9C82C24E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13172,7 +13377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE0AF509-F033-024E-A4E2-30CAF6345B45}" type="CELLRANGE">
+                    <a:fld id="{C35A160B-73DE-DA47-9FF7-5415E807C50D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13205,7 +13410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15F7B7FD-F0CD-BC4F-81AA-BDE128E09F10}" type="CELLRANGE">
+                    <a:fld id="{E5CD7EAE-8890-564A-9E72-60C312480108}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13238,7 +13443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1FF2AAD-CD7D-624B-9191-5F3DF346BFAB}" type="CELLRANGE">
+                    <a:fld id="{136D9B2B-EE82-EA44-BBE9-C2C2EC3D8AD9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13271,7 +13476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{797194E3-5C87-1944-A27F-DEBDBCCACD8B}" type="CELLRANGE">
+                    <a:fld id="{ACCC02FF-6110-8345-8967-54C5462E689B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13304,7 +13509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B9A02F1-F642-FF4D-81AE-ED75D4C7DBE7}" type="CELLRANGE">
+                    <a:fld id="{484E0E84-FB89-F340-B483-A223BCDD436C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13337,7 +13542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D529017-8BE9-5247-ABC1-A77399FFD1B6}" type="CELLRANGE">
+                    <a:fld id="{A86DE26B-78B1-5043-9AE4-116E700B81D1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13370,7 +13575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E45F5702-4C18-FE44-B5DD-ABB24E8040FF}" type="CELLRANGE">
+                    <a:fld id="{94D0032C-2243-7E40-A55E-53CE18EBF857}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13403,7 +13608,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2292F711-2811-9C4B-8D64-726FB42C8E7E}" type="CELLRANGE">
+                    <a:fld id="{C0F3511C-FB27-7C40-9618-7A542F6B46CE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13436,7 +13641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE13DAFE-22AB-954F-BAF9-A435A34BBD7F}" type="CELLRANGE">
+                    <a:fld id="{5099B5B5-3E11-C449-A368-A83B7919DB03}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13469,7 +13674,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65976132-F00D-EC4D-97A9-5FFC87A2B692}" type="CELLRANGE">
+                    <a:fld id="{C5255A12-1D0F-6942-8271-001ED58AE9D5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13502,7 +13707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC687B52-B632-554F-80D8-7686BEF71596}" type="CELLRANGE">
+                    <a:fld id="{3DAD6658-1CE2-9643-8855-8AA9B4E5CA74}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13535,7 +13740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B223D205-59C8-0C44-85AA-5766D2E18AF6}" type="CELLRANGE">
+                    <a:fld id="{DF92114B-EC27-0A45-BF9E-BEA30FC82787}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13568,7 +13773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB1E8C89-B350-554C-A44E-4A8E27086744}" type="CELLRANGE">
+                    <a:fld id="{A4A2F560-4245-624B-B53D-3A460C08D8DB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13601,7 +13806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BA77C7D-9130-6446-BAF0-BFFA10C615DB}" type="CELLRANGE">
+                    <a:fld id="{011B0305-2EBE-A94B-B8DF-3EA9A55A5B36}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13634,7 +13839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7537B783-0F77-3749-9CAF-4C49EE1FCB37}" type="CELLRANGE">
+                    <a:fld id="{0CE20FA9-C480-A444-A42D-4634211E464B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13667,7 +13872,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2913EB78-876F-9B40-B31A-99E1012AC0BA}" type="CELLRANGE">
+                    <a:fld id="{138BF4AA-FFDC-0D41-9CB9-65CE71B92386}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13700,7 +13905,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2655A36F-2C37-2A4E-9D35-AEC2F499CABA}" type="CELLRANGE">
+                    <a:fld id="{22CF52D1-3067-8D42-A102-0FE3FA69E96E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13733,7 +13938,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{377C4748-7D46-2440-993B-5B6705559E89}" type="CELLRANGE">
+                    <a:fld id="{0AD7457F-521A-B34C-AC8C-4C311B41A34D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13766,7 +13971,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76E44B17-2244-8347-A084-915F5D35694B}" type="CELLRANGE">
+                    <a:fld id="{289A9178-2B9B-B748-BB7A-4BD0B1DD058B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13799,7 +14004,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22950290-2D85-7E4A-B972-01CB696C6B90}" type="CELLRANGE">
+                    <a:fld id="{CC337ABD-20FD-DC4B-937F-9F7D46530D75}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13832,7 +14037,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D17262D-883E-954B-B1B6-C1353BD888DF}" type="CELLRANGE">
+                    <a:fld id="{5C865378-0074-814F-A4AD-294702846F3B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13865,7 +14070,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93B22B20-167E-6443-960E-5FA079FCFF62}" type="CELLRANGE">
+                    <a:fld id="{A34CE5EF-8F86-BC4B-AE30-090DD059F988}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13898,7 +14103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0F3E88A-289C-2340-90FE-AF5D861EB7F6}" type="CELLRANGE">
+                    <a:fld id="{F0438BF8-FBF4-6B41-A171-7747E75E8C17}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13931,7 +14136,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAE47B88-5B9D-0640-938F-5B1058D18783}" type="CELLRANGE">
+                    <a:fld id="{8F9766B4-C3A1-FD46-859E-F28B4E3DBB24}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13964,7 +14169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB98A391-3F0D-D745-A5A5-FBF55C4BA74C}" type="CELLRANGE">
+                    <a:fld id="{10838464-0A4F-9841-BBB3-ADD69903E759}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13997,7 +14202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34DFADA5-C9B6-FC47-9D13-B1E74A7328EA}" type="CELLRANGE">
+                    <a:fld id="{D8719B52-060D-AB4D-83F4-8FDC972897B5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14030,7 +14235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1536F8EF-DD63-624F-91AA-F98BC2CCCA06}" type="CELLRANGE">
+                    <a:fld id="{FB935B44-577A-424E-AEA4-F1DD17809EC8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14063,7 +14268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B15B325B-68E4-A442-B434-FCD39D2D2716}" type="CELLRANGE">
+                    <a:fld id="{A701FAD2-CE53-8B4E-9E57-721861FD8F8F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14096,7 +14301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4B0A380-CCE8-EB45-8A10-ACD3ADB5355D}" type="CELLRANGE">
+                    <a:fld id="{F6EC2237-7CF5-3C4A-BB4E-0DD09B21A316}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14129,7 +14334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA541FA6-197B-3E41-972A-61BB7C3F79CE}" type="CELLRANGE">
+                    <a:fld id="{FD4C6A31-2114-3047-9103-7F3BB02AEA10}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14162,7 +14367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EA9563D-8FE7-844C-BCF1-FD682BA8FC77}" type="CELLRANGE">
+                    <a:fld id="{5E0B889A-581D-D04D-8592-5C9C99DD1C77}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14195,7 +14400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{051FAD65-1FB1-4B4B-BCB2-1C67DBD5DEF6}" type="CELLRANGE">
+                    <a:fld id="{BEEB1818-8256-9740-A886-D8D1B860E8DE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14228,7 +14433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8231BAED-7B40-4041-B291-202EA3BE656B}" type="CELLRANGE">
+                    <a:fld id="{873FD89E-F64D-FA45-B8F8-407A243C0138}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14261,7 +14466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00F04A0A-9CF9-9642-BA75-9FA2541B51EE}" type="CELLRANGE">
+                    <a:fld id="{3287A01D-401F-8F47-915F-0459DDC11B52}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14294,7 +14499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C30B0A-68D2-B442-A119-324CD7F31B6D}" type="CELLRANGE">
+                    <a:fld id="{50173CC8-D0DF-F049-A065-E8A0C430C867}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14327,7 +14532,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43B84547-1CE8-B741-8ABA-40BE9C765ED7}" type="CELLRANGE">
+                    <a:fld id="{C8A7FC57-51CA-0840-969A-5BDFCE36A6C0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14360,7 +14565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4DD8E4B-633F-3F47-88B8-270758AA904C}" type="CELLRANGE">
+                    <a:fld id="{B5BB9960-811F-0642-8556-2A8E762CE9FF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14393,7 +14598,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2967F7EE-2747-B143-A0FC-0B5329651B92}" type="CELLRANGE">
+                    <a:fld id="{A9C2D797-B98F-1A46-BC5A-28FEB5F770DA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14426,7 +14631,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6E26CC4-5202-B849-9AB1-31B7090EAFD4}" type="CELLRANGE">
+                    <a:fld id="{D946C718-55D8-A040-855E-3DD58D92CA34}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14459,7 +14664,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2AF37C1-0626-7845-BB96-CDB444F28ACF}" type="CELLRANGE">
+                    <a:fld id="{DE3C52E1-E661-0A48-A139-98ECF52CD174}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14492,7 +14697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5668C4C0-978C-D947-B8F2-E8776ED471B2}" type="CELLRANGE">
+                    <a:fld id="{BD63A8E8-7B6C-DF46-B607-11FE17B7A1B4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14525,7 +14730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4539189C-0F4E-4C41-967C-D14E67FD2E0F}" type="CELLRANGE">
+                    <a:fld id="{C648F8B3-D06F-8247-A2CF-5539C2E30049}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14558,7 +14763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBF832EE-5B6A-F54F-B84C-F106C94F1541}" type="CELLRANGE">
+                    <a:fld id="{71927B21-2AD3-6343-8AC4-7BC27B5B1764}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14591,7 +14796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4A5CF9D-3DBD-4046-A38D-3DBB190534CF}" type="CELLRANGE">
+                    <a:fld id="{41103FA3-BD9B-1646-B313-2C07AAC459CB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14624,7 +14829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39D3D92A-8F26-4447-96FF-7FC983229F6F}" type="CELLRANGE">
+                    <a:fld id="{A3B7C6CC-77D1-C746-B754-E420AF561BFC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14657,7 +14862,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D19BEE3-04A0-C34F-80C0-23CB96389629}" type="CELLRANGE">
+                    <a:fld id="{1E486F22-FA24-E346-BD48-7860890E9FC0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14690,7 +14895,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93124AA7-2515-3142-825F-AC5EA71360E8}" type="CELLRANGE">
+                    <a:fld id="{E4A04C45-6EBC-A64E-9ED0-570964045BCA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14723,7 +14928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0778D4B9-B9B3-A245-9A42-557AECD20C1F}" type="CELLRANGE">
+                    <a:fld id="{D63CDE11-4929-3D45-8042-9A1CD93DDC1D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14756,7 +14961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{425F364D-F9A2-D649-8E77-5B68DC74F249}" type="CELLRANGE">
+                    <a:fld id="{6C3B6E15-A0CC-8046-8C3B-4F3CA94724E2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14789,7 +14994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1E22957-7B16-2443-B879-F5B131E55326}" type="CELLRANGE">
+                    <a:fld id="{5AB2317A-7850-4F49-AF2B-CE39EBD6D15B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14822,7 +15027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76AF44DB-DE19-6C49-841B-78A39A320638}" type="CELLRANGE">
+                    <a:fld id="{972B1CF9-96BD-3945-BF3A-787697ED68D6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14855,7 +15060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38814680-EF7C-4C43-BAC0-DE33E67909D2}" type="CELLRANGE">
+                    <a:fld id="{02D567C6-2723-E24A-9A43-B67EE0A9200C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15830,7 +16035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42194F7A-2C56-7849-B8EF-E85FB18409C5}" type="CELLRANGE">
+                    <a:fld id="{53DE297D-F6D5-8048-A2B9-F34CF6267E8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15862,7 +16067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{252DA042-0EEA-C64F-B6D8-0187EB9EEB18}" type="CELLRANGE">
+                    <a:fld id="{A1228A10-AC50-3B4E-82B3-2333727BEACF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15895,7 +16100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3E86E3D-6911-3143-89B7-36D29F335515}" type="CELLRANGE">
+                    <a:fld id="{FCE7872E-1E57-BD49-AE1B-1213B61CA82E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15928,7 +16133,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFD5A4E0-C220-CD40-AFA9-E57E49FDE16A}" type="CELLRANGE">
+                    <a:fld id="{975A53D0-D68F-C747-B392-9159D268A56F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15961,7 +16166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{315E69D5-D6CF-4E48-8B24-E488802EFB7B}" type="CELLRANGE">
+                    <a:fld id="{DE4E3924-5A48-AA40-9DFC-89489DF98220}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15994,7 +16199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59E12FCC-C0B5-3842-BB26-D0B9551D4005}" type="CELLRANGE">
+                    <a:fld id="{FB620FE8-95D2-C949-AA3C-F0DE88AAC64B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16027,7 +16232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9E0F4C7-4022-A24A-9FFD-7DE567EC5E48}" type="CELLRANGE">
+                    <a:fld id="{5DD06A6A-78AC-D54D-8425-C9CD238C7ADD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16060,7 +16265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D588B642-1C88-0843-8727-DF5094CB5E4E}" type="CELLRANGE">
+                    <a:fld id="{A50500F6-6E19-DB4C-A8F4-35385EFFFD68}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16093,7 +16298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CF1A5FD-1BB2-204F-8BD4-4C167A7B44D5}" type="CELLRANGE">
+                    <a:fld id="{42AC9498-D331-D24E-9322-8CE0CCF2B9FC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16126,7 +16331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B7C2866-B381-7E40-94A8-5720982CA037}" type="CELLRANGE">
+                    <a:fld id="{FC5FC6DF-9D3B-F147-833E-2A16CE1CB382}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16159,7 +16364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6780C86C-5E62-024C-9C4A-397382459C2B}" type="CELLRANGE">
+                    <a:fld id="{3E581BCE-8C17-DD48-A03E-DB07A976436C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16192,7 +16397,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{044B422B-5D63-A547-A48A-95B2A92B11FA}" type="CELLRANGE">
+                    <a:fld id="{173397B2-F142-B241-B459-E7AEDD0C6CEC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16225,7 +16430,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFC4135E-205E-714A-A3CD-5D8304517827}" type="CELLRANGE">
+                    <a:fld id="{F91726AB-DB6C-AD4A-A331-169124359F29}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16258,7 +16463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98AA670F-AD4F-1547-A5CB-64D18C193EC6}" type="CELLRANGE">
+                    <a:fld id="{9550B186-6FAD-D848-BE32-260D65E8669A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16291,7 +16496,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD8E4280-C6A9-1B4D-8379-3FB82893C819}" type="CELLRANGE">
+                    <a:fld id="{5310E4B9-52F7-3747-A392-2F6F300DE514}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16324,7 +16529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A72BAB44-F0BE-FA41-8F8D-FE9659889083}" type="CELLRANGE">
+                    <a:fld id="{2FAED32D-0EAB-A04F-9509-357FC4887780}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16357,7 +16562,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAF39937-165A-B740-A046-CD1EECCD3051}" type="CELLRANGE">
+                    <a:fld id="{3E1DF078-16E5-B449-901A-4369C17FE262}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16390,7 +16595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7C8D45B-0813-004A-B923-7F77785B26E2}" type="CELLRANGE">
+                    <a:fld id="{8ED2467D-5B37-DC45-945F-444C20FAD257}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16423,7 +16628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67155F28-D721-0843-9200-7F7D9506C9FB}" type="CELLRANGE">
+                    <a:fld id="{A21F1A4F-A3C0-4842-90BD-B96FE464CCEB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16456,7 +16661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44236840-92B2-6149-B0C8-7855E914C392}" type="CELLRANGE">
+                    <a:fld id="{5A670F49-E5D9-284D-ADF1-C1A709620514}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16489,7 +16694,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBA58BC0-B5B5-3642-9962-EF0884AF5E75}" type="CELLRANGE">
+                    <a:fld id="{DECBDEEF-4773-F14F-95DF-69CCF84D3310}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16522,7 +16727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6C2568D-0C89-614D-A03A-701539B1B3CD}" type="CELLRANGE">
+                    <a:fld id="{74AB4713-37E8-5540-BCC6-00A4520C78B5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16555,7 +16760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64A17128-053E-9546-BD03-717814A0AEA6}" type="CELLRANGE">
+                    <a:fld id="{9B48A0B8-4F30-8D40-BD63-FAFE9DC97E76}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16588,7 +16793,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BEC1B76-E839-244A-A313-F3664306F1A4}" type="CELLRANGE">
+                    <a:fld id="{5ABBBA3D-3D29-BB4F-AC2C-BC42E9EFF241}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16621,7 +16826,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF70034F-5713-B044-B29D-0EFF759E729A}" type="CELLRANGE">
+                    <a:fld id="{73F32A42-1D29-934F-A844-DF0BA76D3577}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16654,7 +16859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD8865C9-E6FC-3542-B70F-EB2125151E64}" type="CELLRANGE">
+                    <a:fld id="{7CCDA549-9D11-D04C-95DC-08A5114A09B1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16687,7 +16892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9EFD626-0CF4-FD4A-A430-F781D88F00E5}" type="CELLRANGE">
+                    <a:fld id="{4923966D-5897-DA4C-B9B0-95F3E3CADFBD}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16720,7 +16925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8347A66-91C9-AA4A-B26E-FCF20F7BCA7C}" type="CELLRANGE">
+                    <a:fld id="{DF4B3482-DABD-BB4A-90E6-7CD206219033}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16753,7 +16958,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD0ABCAF-CE60-124D-A7D3-C08C7F42428C}" type="CELLRANGE">
+                    <a:fld id="{5E13C398-E29C-6743-89C1-E6A119877E56}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16786,7 +16991,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6649D930-43BB-2842-AC74-FF0C6349E3AE}" type="CELLRANGE">
+                    <a:fld id="{8B3878D0-34C9-384C-88DC-52ED5E35399F}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16819,7 +17024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A259CED-8FE2-B246-B452-8102A92DA2CE}" type="CELLRANGE">
+                    <a:fld id="{A188054E-9010-2D4F-9A6D-16ACDE089AE5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16852,7 +17057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A26DFE9F-E1F2-8943-8AAD-927A0142E6E3}" type="CELLRANGE">
+                    <a:fld id="{4BD3B7C6-29FD-BF41-B4E0-3C04DCBBFCA6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16885,7 +17090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25BC3C48-5260-154B-903A-50584AF2005F}" type="CELLRANGE">
+                    <a:fld id="{DEED52D7-6812-9749-A100-8F8EE636AD37}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16918,7 +17123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99119A8F-89EF-5B4F-B7AC-BE159EAAEE87}" type="CELLRANGE">
+                    <a:fld id="{B39B4CD9-167A-BE4F-A159-24132F1CE70D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16951,7 +17156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3DC8CB7-4FC0-4D4B-A921-7044E6BE3AEB}" type="CELLRANGE">
+                    <a:fld id="{AD274C00-9F8A-7840-A1AF-F512D311BADE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16984,7 +17189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FEF4337-9590-EC43-9705-96E2254B9AB5}" type="CELLRANGE">
+                    <a:fld id="{8E62F419-99B2-2B45-B00B-50EAAD08DE74}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17017,7 +17222,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D31AEBDE-FB19-3641-89A5-DD5D10075FFF}" type="CELLRANGE">
+                    <a:fld id="{59DDA665-8B48-5442-83D1-51D27ACA97BF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17050,7 +17255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0798B8E4-76AA-9C42-A0C6-7CFD1BE62F0C}" type="CELLRANGE">
+                    <a:fld id="{A68CCAAA-9A6A-424A-A7DD-1FA53950B6F5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17083,7 +17288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35F3DF50-284C-9346-A197-32BAD92F30C8}" type="CELLRANGE">
+                    <a:fld id="{D718F31D-D2FF-064F-BD8A-83294ADBEA18}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17116,7 +17321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B809512-2F5A-4741-9121-DEC0CC0A432E}" type="CELLRANGE">
+                    <a:fld id="{54ACDDF0-656D-E74E-AB8E-5CC44EA6E32D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17149,7 +17354,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F82A2E46-CC04-3D4E-8533-6D257ED0D62C}" type="CELLRANGE">
+                    <a:fld id="{412AFA3A-0AC9-CA4E-A8AF-72380744AAF4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17182,7 +17387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8971502-CAA4-554B-8CFE-A2DBFF8A5496}" type="CELLRANGE">
+                    <a:fld id="{8B85CDB6-9DF3-ED45-9BBF-5283C71E4E21}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17215,7 +17420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA42A018-7E7E-6144-A247-597866BDF964}" type="CELLRANGE">
+                    <a:fld id="{D31C0A60-43FF-C746-A170-64E00F859837}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17248,7 +17453,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FFEE1C5-400D-BF4F-A2BB-9C5D29F89635}" type="CELLRANGE">
+                    <a:fld id="{34857BB3-C956-004B-968C-89F916D23905}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17281,7 +17486,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E103434-A357-6E46-88A9-D7E8CC68C62F}" type="CELLRANGE">
+                    <a:fld id="{E20CEC7C-1C0A-3341-B1D6-951C5494B453}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17314,7 +17519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B77E37EF-7B52-1947-81CB-724975B65860}" type="CELLRANGE">
+                    <a:fld id="{0F02970E-3D5E-CB42-AA64-8EFDABC48719}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17347,7 +17552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39112BD5-038A-D449-9F2A-E05707FA4976}" type="CELLRANGE">
+                    <a:fld id="{79360CC5-572D-804B-A80C-57CAF3B30752}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17380,7 +17585,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DA8816C-E981-D24E-8F2C-18CA710B081A}" type="CELLRANGE">
+                    <a:fld id="{555D73C6-B6B6-E049-A72E-3DA5E2473362}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17413,7 +17618,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0B41FA5-E683-9E45-B1B6-63E3A998EC3E}" type="CELLRANGE">
+                    <a:fld id="{4A2465FB-7F30-0148-B65E-6D4A99690EB1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17446,7 +17651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1839479D-508A-5E43-8331-2C0A140295A5}" type="CELLRANGE">
+                    <a:fld id="{45F7198C-F3D2-2543-851B-E1649182AD4B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17479,7 +17684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B06D49C0-3292-6845-B8CE-B1F68906FF96}" type="CELLRANGE">
+                    <a:fld id="{5699065E-1C02-DD4C-94E8-6E7A0D62A4A0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17512,7 +17717,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA405ED5-A0D2-A845-8D59-877397303719}" type="CELLRANGE">
+                    <a:fld id="{02DD9A7A-8093-E248-8943-C0051C0CA0F1}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17545,7 +17750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64A9A4A2-1AF0-7B40-BF39-A260E379FF09}" type="CELLRANGE">
+                    <a:fld id="{E45E205A-D302-7D4E-9916-7B2E81F863A0}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17578,7 +17783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8B3EE14-E32C-C643-BD78-33194D5B10A8}" type="CELLRANGE">
+                    <a:fld id="{CA057A27-7F07-1C41-A527-90FC1E21ED63}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17611,7 +17816,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52C2A093-CF91-404E-B91C-121965D51333}" type="CELLRANGE">
+                    <a:fld id="{C484806F-781C-514F-90AD-6676B0C139AB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17644,7 +17849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E996961A-1347-2C4C-B3DF-BC6EE3BB6A3F}" type="CELLRANGE">
+                    <a:fld id="{DD6D9ACB-EC10-3948-8E17-2A37AFF1780A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17677,7 +17882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E5D9E18-CE07-BB4B-BEC7-4F30809A8820}" type="CELLRANGE">
+                    <a:fld id="{70632EC4-A15F-8D4A-BD04-6472F70CBFDB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17710,7 +17915,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{468B869F-D4D6-374E-AFC7-512545576A7D}" type="CELLRANGE">
+                    <a:fld id="{D7022CD4-3055-C14C-BE02-3F4D11CDF510}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17743,7 +17948,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC5EFF60-7106-2640-A37B-EB3BCD35B53A}" type="CELLRANGE">
+                    <a:fld id="{BFB4696E-06B1-C348-AD40-C78D51324A06}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17776,7 +17981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DE2270D-6F0C-6F42-A0A5-D9A8BCD21593}" type="CELLRANGE">
+                    <a:fld id="{BF097FC6-26BA-9F40-B59A-726A47646E11}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17809,7 +18014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CC50C4C-D773-C749-A791-FA35D564F063}" type="CELLRANGE">
+                    <a:fld id="{EDEB58D8-6254-4849-A037-D1DD3E6B00FC}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17842,7 +18047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AEB9E2D-95CC-9B4F-94B5-E0D602963C13}" type="CELLRANGE">
+                    <a:fld id="{0733396B-9514-9245-8BDA-DACAF4BB7D53}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18795,7 +19000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33BE17C8-E56C-644E-9BB5-391E0C17F2DD}" type="CELLRANGE">
+                    <a:fld id="{6244D3CD-014B-1145-823C-855165DD62FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18827,7 +19032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4BF8A76-6952-ED4F-A4D2-68418064A8BF}" type="CELLRANGE">
+                    <a:fld id="{C0BD1A77-0480-6A42-9870-612BCD743462}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18860,7 +19065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C121D75B-3CFE-0044-A660-BEB757BA3D8E}" type="CELLRANGE">
+                    <a:fld id="{E8BBEA27-5487-6143-B3E1-2A3D56D598D7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18893,7 +19098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5573DD70-32C7-784B-9667-84E326DB339B}" type="CELLRANGE">
+                    <a:fld id="{96924EF5-3DE7-9A47-97E9-BE58007CC6D6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18926,7 +19131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFF6E373-D6CC-8844-A446-2F98BB8AA33E}" type="CELLRANGE">
+                    <a:fld id="{67196542-0673-AD4C-A68D-F1C0501BEB02}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18959,7 +19164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F919766-B993-2E4E-939C-A4D57E44E75E}" type="CELLRANGE">
+                    <a:fld id="{DA9ED474-4CF2-AE42-ADE9-500046C1CEFE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18992,7 +19197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{399808A5-5AA7-B846-BC57-08FBB1A02626}" type="CELLRANGE">
+                    <a:fld id="{D6E2740E-D3BF-BB42-AA5C-B9D8D176AD7B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19025,7 +19230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0975A2DD-B3FD-5A4A-B598-7DCE11CEC347}" type="CELLRANGE">
+                    <a:fld id="{0D81295D-D0B2-5948-BB15-707DC0B2F195}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19058,7 +19263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EB31919-0070-3245-9B72-D19081B33940}" type="CELLRANGE">
+                    <a:fld id="{9799B393-DE91-0642-894E-B98739F96359}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19091,7 +19296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D01AF08-F674-BD43-9C21-1051068D1FB0}" type="CELLRANGE">
+                    <a:fld id="{DD7E04C8-BA02-6D44-B07C-DE06F265B861}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19124,7 +19329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F1E8942-BC3B-5845-AE8B-1BC7AF339DB9}" type="CELLRANGE">
+                    <a:fld id="{08E93CCB-89C1-2B4E-B5E6-4AD176F22CFE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19157,7 +19362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DDD8D46-3EA4-D647-A8F0-2B3A6A8C4C63}" type="CELLRANGE">
+                    <a:fld id="{91823F93-FCE0-414B-A309-D0D0605318CE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19190,7 +19395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B19808D-FDC8-CD4D-9096-B66D1F04DE0E}" type="CELLRANGE">
+                    <a:fld id="{34CFE08D-0469-AF40-A0C3-9709D9C0D5BF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19223,7 +19428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E53F7EAB-595A-CF45-9F8D-1274F87C8BAE}" type="CELLRANGE">
+                    <a:fld id="{1E30FF97-FA50-D14D-93DC-63F97F9D0565}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19256,7 +19461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FC7FCB2-E3FE-9047-A2BD-7582A95B5D01}" type="CELLRANGE">
+                    <a:fld id="{5366A3AC-AEA1-0640-B795-6C8E650C0752}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19289,7 +19494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B72B41FE-57FD-9A42-A8B1-F9E537DA6FC2}" type="CELLRANGE">
+                    <a:fld id="{2CA90859-5B05-0247-BF0B-593C7A1BD350}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19322,7 +19527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B26881BD-6006-2047-B90B-AF933706E784}" type="CELLRANGE">
+                    <a:fld id="{7DC78B6E-4FCF-E84E-90CD-CF18FA633D62}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19355,7 +19560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41FAF8FA-769C-7F49-B041-F15379218AE9}" type="CELLRANGE">
+                    <a:fld id="{4954F9B3-BA8F-5547-AE26-E66DCA41C2AA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19388,7 +19593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD502E3A-CD4B-F04D-BD05-B0C09ADCCF8B}" type="CELLRANGE">
+                    <a:fld id="{E67D7D0F-80F5-584C-8AA2-6AA985105FCF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19421,7 +19626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76C28486-3C40-D345-8BD5-63CE29C115E8}" type="CELLRANGE">
+                    <a:fld id="{C677A192-BF13-5743-B3EB-E0A0C8E1E5F5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19454,7 +19659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD08FA31-B1B5-4A4A-AA77-6940A4A3EC28}" type="CELLRANGE">
+                    <a:fld id="{CC08D1C2-45A3-0544-8333-73C49B687DFF}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19487,7 +19692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AADB7024-353E-F64F-800A-B3CB891C3BF5}" type="CELLRANGE">
+                    <a:fld id="{15804E26-1646-8B4B-8056-AA5DC5A21D06}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19520,7 +19725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{108D9F40-9B07-A64B-8903-D4DADCBAA286}" type="CELLRANGE">
+                    <a:fld id="{F5B67BD3-B48B-824E-8D4A-3918B1390CA3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19553,7 +19758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{871EA5AA-541D-844D-BEE5-B6575D834935}" type="CELLRANGE">
+                    <a:fld id="{F10B518E-665E-4745-8899-AC8BC1E6C16B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19586,7 +19791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29321414-FFB2-4D41-A5EA-C40213B8A445}" type="CELLRANGE">
+                    <a:fld id="{529273C7-2BC2-3D45-BCC3-A8B657FD431A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19619,7 +19824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6D08340-3A74-3446-94A0-8DF690BFEDC3}" type="CELLRANGE">
+                    <a:fld id="{993ED15A-BBFC-6342-B54A-68ACE6DA33A8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19652,7 +19857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA6BE134-190F-7641-BC1D-11AB4FCF7944}" type="CELLRANGE">
+                    <a:fld id="{DBFA54DC-C714-4A4E-99BD-9ABFE5399BA2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19685,7 +19890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA966284-15E3-894A-947A-DB25D07AD944}" type="CELLRANGE">
+                    <a:fld id="{2CED4B75-5F6A-8543-9FD9-E9DBE7010666}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19718,7 +19923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6C77E34-F797-AD44-9D52-BA45B8AA168F}" type="CELLRANGE">
+                    <a:fld id="{C6B32ADE-7DC1-524B-9850-FE0D187B15C8}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19751,7 +19956,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D1253B8-3075-814B-BE4E-84B3C179475C}" type="CELLRANGE">
+                    <a:fld id="{61E9FA09-573B-7947-AB02-D3EC75E3DDAE}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19784,7 +19989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A0B6718-116D-014D-8DEB-26779A20BF5B}" type="CELLRANGE">
+                    <a:fld id="{60873882-580F-764E-9EA9-DDE2E9311CB7}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19817,7 +20022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63A805B2-5237-D249-B7DC-6C20BE900512}" type="CELLRANGE">
+                    <a:fld id="{3AA77B81-FB5E-0A40-A648-F154101A6688}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19850,7 +20055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42084BE1-CE5A-3940-8695-40A5F4B88430}" type="CELLRANGE">
+                    <a:fld id="{59E2B316-DD7E-CE47-92C2-8AF684E7D64C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19883,7 +20088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41412C87-BFEE-F64E-9283-2A415F3EC88D}" type="CELLRANGE">
+                    <a:fld id="{72326908-EA38-3844-BFFC-A6EA806A7C0A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19916,7 +20121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51714DBB-0AC0-8448-8DAD-A77CB86DF0B6}" type="CELLRANGE">
+                    <a:fld id="{0A252DCB-9AB7-8944-B0E5-A95D16FEB78C}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19949,7 +20154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2728973D-B147-EC4C-9026-C5709914AF92}" type="CELLRANGE">
+                    <a:fld id="{A03FBBE8-B38D-6648-86B7-7DDC936C683D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19982,7 +20187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77B9DAB7-FE74-C34D-BDE9-F883BF7036CF}" type="CELLRANGE">
+                    <a:fld id="{83AE7CA8-7C85-9042-92AA-4322E3C62FBA}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20015,7 +20220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85087EBC-1DA0-A042-8E82-676068D378D2}" type="CELLRANGE">
+                    <a:fld id="{F48346D8-7A3F-584A-ABCE-177FD3054CD6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20048,7 +20253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BC9A818-3EEF-7F42-BAF3-4041BD0B6559}" type="CELLRANGE">
+                    <a:fld id="{7B45B817-3BB2-284E-8A15-B7992A290F75}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20081,7 +20286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{988A96C0-1932-5D49-928F-E4749707FCBB}" type="CELLRANGE">
+                    <a:fld id="{AAE3EAB3-2565-1E4B-A9F4-585D39A9837B}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20114,7 +20319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3075E213-9B5D-4A4E-91EA-CAEE2845581B}" type="CELLRANGE">
+                    <a:fld id="{9FF57D5A-0CB3-C346-99B6-F398683E3118}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20147,7 +20352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{141E5E81-3730-FE4E-974F-C454BBC3390D}" type="CELLRANGE">
+                    <a:fld id="{6F45CBFF-2A0D-CE42-A65D-25BD0A4FA9B3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20180,7 +20385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC7A62FF-E93B-9E4C-90F3-299263D81D22}" type="CELLRANGE">
+                    <a:fld id="{75BB1CFB-5407-8F4F-8F4A-C0F8866E8AF4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20213,7 +20418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25A26A3D-37D9-C04E-B690-613CA4B34E43}" type="CELLRANGE">
+                    <a:fld id="{43F82A72-AECA-6848-BE8F-020EA7C9955D}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20246,7 +20451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEF99CB9-86A2-644C-AA0A-93BEA189B36B}" type="CELLRANGE">
+                    <a:fld id="{1339EC35-767F-B54C-A71D-9D190F9265A9}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20279,7 +20484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA3F1795-AE58-A44A-8820-47E503991CD9}" type="CELLRANGE">
+                    <a:fld id="{83DF0C48-D087-BC42-B0E8-7D27B6F183B5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20312,7 +20517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{799E21F7-866E-974E-A198-FDC2F96C44FF}" type="CELLRANGE">
+                    <a:fld id="{AB85581C-4566-FF4D-A0F1-50C22E9D6112}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20345,7 +20550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F64222F6-3705-7246-AE8C-16712055CEFA}" type="CELLRANGE">
+                    <a:fld id="{CA33697B-ECDB-BF44-B22F-04295531D78E}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20378,7 +20583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C0D88D0-EA49-764B-B397-ADB01AB65A33}" type="CELLRANGE">
+                    <a:fld id="{4FD91A2E-AB17-C941-8938-C2D060C08404}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20411,7 +20616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5795D67-E4BD-A449-BC3E-4B6BBA40B384}" type="CELLRANGE">
+                    <a:fld id="{86F5906F-E48A-F949-81A2-E9DBB6EBF402}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20444,7 +20649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC0F56E3-16EF-FB4E-92FC-BF76F8FFA784}" type="CELLRANGE">
+                    <a:fld id="{2F571B22-2A09-1D42-A59F-DF3780271913}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20477,7 +20682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08C1975C-91FE-B74B-AD6E-50C62A7FEEDA}" type="CELLRANGE">
+                    <a:fld id="{3F5A3516-EC18-EB41-A9B5-2746085CA7B4}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20510,7 +20715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{694D516F-770A-424E-B571-52DA5976925A}" type="CELLRANGE">
+                    <a:fld id="{BCB24DD5-8124-F44C-B40F-E9CE087C8CDB}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20543,7 +20748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C12A71CC-D7FF-B146-B8DB-51B3A1724D09}" type="CELLRANGE">
+                    <a:fld id="{D0C22AE6-734E-2A4D-96E6-F2F8107F975A}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20576,7 +20781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7700203F-BA89-C849-829F-E53743955746}" type="CELLRANGE">
+                    <a:fld id="{22A6DE33-CE22-BC45-91E3-8EB97945D0C6}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20609,7 +20814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1DA60CC-C713-EE44-9C6F-D2C56FC5D78B}" type="CELLRANGE">
+                    <a:fld id="{494D8091-AB58-B84F-9DCE-B2A550CE5D90}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20642,7 +20847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04A70276-93F5-B848-9F21-B18D54C16E5F}" type="CELLRANGE">
+                    <a:fld id="{B18B2CEB-ECB0-1A48-A0AE-580D48552AC2}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20675,7 +20880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADFA3F65-44F7-344E-8422-48C2D159DC72}" type="CELLRANGE">
+                    <a:fld id="{BA19FFB0-F7AE-B542-8C15-6EE9D4F65983}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20708,7 +20913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E18BED7F-6DCD-0649-90D7-AED85489722B}" type="CELLRANGE">
+                    <a:fld id="{87AD4B37-DE38-FE48-B485-6169F0A8B918}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20741,7 +20946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8670B94B-5341-1B4A-809C-CDB3988AD4B1}" type="CELLRANGE">
+                    <a:fld id="{02CF6997-6A9D-3744-B985-1932590250B3}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20774,7 +20979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{344C64E3-18E4-FB48-96E8-9E52C32816F9}" type="CELLRANGE">
+                    <a:fld id="{3D94B387-4FCA-2F4D-8A53-F7306F2E3B96}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20807,7 +21012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D14D3B3A-2A5A-6D4B-A9BC-B63C4D3866EE}" type="CELLRANGE">
+                    <a:fld id="{ABF94E06-3BCE-5248-96CE-90A496DC97C5}" type="CELLRANGE">
                       <a:rPr lang="es-MX"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -25564,7 +25769,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59CA687-1A63-6A16-BF1C-3EDF8239F5B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25675,7 +25880,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8271B887-626F-9649-970B-16DCD2157816}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25718,7 +25923,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF012AE6-693D-9D49-9018-BF4C0B415958}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25761,7 +25966,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF6BE9-0E9C-3740-A452-AB21E62271B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25804,7 +26009,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE89C445-7FEA-8842-B9DF-156CC46A630E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25847,7 +26052,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89571E2F-5FED-354F-93BD-C5C86F944F8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25890,7 +26095,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05104E8A-AB81-9C42-9A7D-2DE9087609D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28476,6 +28681,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9A7058-00CA-6744-8379-41B1C87AE752}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4053C8FF-5711-3B4F-9AD2-AFA8CF4BACB3}">
   <dimension ref="A1"/>
@@ -28493,8 +28710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C05AE-70A8-2B42-9F1B-DB98428C6E57}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28504,16 +28721,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -28674,6 +28891,1102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A80424-05EE-6047-9EF8-78048DDBBAD7}">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7809DB9B-3FD8-5549-9FCD-267FEFC8FD9E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28686,7 +29999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F32D40-50E3-6642-8D70-05112DFB6AD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28699,7 +30012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D1D4AF-07CA-6F49-AFFE-0C0473FEE9BF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28712,7 +30025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5194872-4A7E-814B-947B-A32CCDF9E906}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28725,7 +30038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61859BC3-7413-7547-83A4-19282395964C}">
   <dimension ref="A1"/>
   <sheetViews>
